--- a/Figures_Tables/result_tables/tables.xlsx
+++ b/Figures_Tables/result_tables/tables.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13840" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sensitivity study" sheetId="3" r:id="rId3"/>
     <sheet name="Ps model" sheetId="4" r:id="rId4"/>
+    <sheet name="Table2_New" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="244">
+  <si>
+    <t>Discharge from ICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from Hospital</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extubation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61~0.86</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6~0.84</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63~0.87</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>-1.28 (-1.44~-1.11)</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -76,6 +101,18 @@
   <si>
     <t>Ventilation time
 (non-surviors)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary Outcome</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subhazard Ratio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>95% CI</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1070,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1134,6 +1171,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1168,6 +1208,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,15 +1574,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -1535,65 +1590,65 @@
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickTop="1">
       <c r="A3" s="11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D4" s="17">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G4" s="18">
         <v>0.4</v>
@@ -1601,22 +1656,22 @@
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D5" s="18">
         <v>0.36</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G5" s="18">
         <v>0.36</v>
@@ -1624,22 +1679,22 @@
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G6" s="18">
         <v>0.6</v>
@@ -1647,12 +1702,12 @@
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="22" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -1662,45 +1717,45 @@
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="18" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1711,22 +1766,22 @@
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D11" s="18">
         <v>0.7</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G11" s="18">
         <v>0.4</v>
@@ -1734,22 +1789,22 @@
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D12" s="18">
         <v>0.1</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G12" s="18">
         <v>0.7</v>
@@ -1757,22 +1812,22 @@
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D13" s="18">
         <v>0.8</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G13" s="18">
         <v>0.7</v>
@@ -1780,22 +1835,22 @@
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D14" s="18">
         <v>0.2</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G14" s="18">
         <v>0.6</v>
@@ -1803,22 +1858,22 @@
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D15" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G15" s="18">
         <v>0.5</v>
@@ -1826,22 +1881,22 @@
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D16" s="18">
         <v>0.5</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G16" s="18">
         <v>0.8</v>
@@ -1849,22 +1904,22 @@
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D17" s="17">
         <v>1E-4</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G17" s="18">
         <v>1</v>
@@ -1872,22 +1927,22 @@
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D18" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G18" s="18">
         <v>0.6</v>
@@ -1895,22 +1950,22 @@
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D19" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G19" s="18">
         <v>0.8</v>
@@ -1918,7 +1973,7 @@
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1929,22 +1984,22 @@
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G21" s="18">
         <v>0.3</v>
@@ -1952,22 +2007,22 @@
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D22" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G22" s="18">
         <v>0.5</v>
@@ -1975,22 +2030,22 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D23" s="18">
         <v>0.01</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G23" s="18">
         <v>0.7</v>
@@ -1998,22 +2053,22 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D24" s="18">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G24" s="18">
         <v>0.6</v>
@@ -2021,22 +2076,22 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D25" s="18">
         <v>0.77</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G25" s="18">
         <v>0.8</v>
@@ -2044,22 +2099,22 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D26" s="18">
         <v>0.05</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G26" s="18">
         <v>0.6</v>
@@ -2067,22 +2122,22 @@
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D27" s="17">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G27" s="18">
         <v>1</v>
@@ -2090,22 +2145,22 @@
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D28" s="17">
         <v>0.02</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G28" s="18">
         <v>0.3</v>
@@ -2113,22 +2168,22 @@
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D29" s="18">
         <v>0.6</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G29" s="18">
         <v>7.0000000000000007E-2</v>
@@ -2136,22 +2191,22 @@
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D30" s="18">
         <v>0.5</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" s="18">
         <v>0.7</v>
@@ -2159,22 +2214,22 @@
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D31" s="17">
         <v>0.02</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G31" s="18">
         <v>0.2</v>
@@ -2191,22 +2246,22 @@
     </row>
     <row r="33" spans="1:7" ht="27" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G33" s="18">
         <v>0.2</v>
@@ -2214,22 +2269,22 @@
     </row>
     <row r="34" spans="1:7" ht="38" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G34" s="18">
         <v>1</v>
@@ -2259,194 +2314,194 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B2" s="34">
+        <v>0.152</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E10" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
-      <c r="A2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="33">
-        <v>0.152</v>
-      </c>
-      <c r="C2" s="33">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="30">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="22" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="28">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" customHeight="1">
-      <c r="A7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="28">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="28">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>0.3</v>
       </c>
     </row>
@@ -2478,23 +2533,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2502,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C7">
         <v>693</v>
@@ -2510,7 +2565,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C8">
         <v>85.56</v>
@@ -2524,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C10">
         <v>117</v>
@@ -2532,7 +2587,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C11">
         <v>14.44</v>
@@ -2540,10 +2595,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -2551,7 +2606,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2562,7 +2617,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C16" s="5">
         <v>0.42399999999999999</v>
@@ -2597,38 +2652,38 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3">
         <v>0.99664870000000005</v>
@@ -2651,7 +2706,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B6" s="3">
         <v>1.000894</v>
@@ -2674,7 +2729,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B7" s="3">
         <v>1.59127</v>
@@ -2697,7 +2752,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B8" s="3">
         <v>7.2156000000000002</v>
@@ -2726,7 +2781,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2735,7 +2790,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B11" s="3">
         <v>1.5041310000000001</v>
@@ -2758,7 +2813,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B12" s="3">
         <v>1.183298</v>
@@ -2781,7 +2836,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B13" s="3">
         <v>1.5754729999999999</v>
@@ -2804,7 +2859,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B14" s="3">
         <v>1.4919450000000001</v>
@@ -2827,7 +2882,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B15" s="3">
         <v>1.9040029999999999</v>
@@ -2850,7 +2905,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B16" s="3">
         <v>1.127912</v>
@@ -2879,7 +2934,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B18" s="3">
         <v>1.0259119999999999</v>
@@ -2902,7 +2957,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B19" s="3">
         <v>1.7799700000000001</v>
@@ -2925,7 +2980,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B20" s="3">
         <v>0.97763770000000005</v>
@@ -2948,7 +3003,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B21" s="3">
         <v>1.537355</v>
@@ -2971,7 +3026,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B22" s="3">
         <v>0.36014439999999998</v>
@@ -2994,7 +3049,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B23" s="3">
         <v>0.78372209999999998</v>
@@ -3017,7 +3072,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B24" s="3">
         <v>0.95840420000000004</v>
@@ -3040,7 +3095,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B25" s="3">
         <v>1.382242</v>
@@ -3063,7 +3118,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B26" s="3">
         <v>1.1597500000000001</v>
@@ -3086,7 +3141,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B27" s="3">
         <v>1.016337</v>
@@ -3109,7 +3164,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B28" s="3">
         <v>1.007226</v>
@@ -3132,7 +3187,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B29" s="3">
         <v>1.0063120000000001</v>
@@ -3155,7 +3210,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B30" s="3">
         <v>0.97394990000000004</v>
@@ -3178,7 +3233,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B31" s="3">
         <v>1.0002230000000001</v>
@@ -3201,7 +3256,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B32" s="3">
         <v>1.032224</v>
@@ -3224,7 +3279,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B33" s="3">
         <v>0.95359110000000002</v>
@@ -3247,7 +3302,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B34" s="3">
         <v>0.99973749999999995</v>
@@ -3270,7 +3325,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B35" s="4">
         <v>0.92980370000000001</v>
@@ -3293,7 +3348,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B36" s="4">
         <v>1.0222789999999999</v>
@@ -3316,7 +3371,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B37" s="4">
         <v>1.023301</v>
@@ -3339,7 +3394,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B38" s="4">
         <v>1.055034</v>
@@ -3362,7 +3417,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B39" s="4">
         <v>1.005822</v>
@@ -3385,7 +3440,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B40" s="4">
         <v>0.76309660000000001</v>
@@ -3408,7 +3463,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B41" s="4">
         <v>1.0007079999999999</v>
@@ -3431,7 +3486,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B42" s="4">
         <v>0.99573080000000003</v>
@@ -3454,12 +3509,12 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3471,4 +3526,159 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" thickTop="1">
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0.152</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0.72</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="39">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="41">
+        <v>0.71</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="39">
+      <c r="A4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39">
+      <c r="A5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Figures_Tables/result_tables/tables.xlsx
+++ b/Figures_Tables/result_tables/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13840" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13960" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,648 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="244">
   <si>
+    <t>792 (44.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aline_flg</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P&gt;z</t>
+  </si>
+  <si>
+    <t>[95% Conf.</t>
+  </si>
+  <si>
+    <t>Interval]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>weight_first</t>
+  </si>
+  <si>
+    <t>sofa_first</t>
+  </si>
+  <si>
+    <t>hour_icu_intime</t>
+  </si>
+  <si>
+    <t>1.chf_flg</t>
+  </si>
+  <si>
+    <t>1.afib_flg</t>
+  </si>
+  <si>
+    <t>1.renal_flg</t>
+  </si>
+  <si>
+    <t>1.liver_flg</t>
+  </si>
+  <si>
+    <t>1.copd_flg</t>
+  </si>
+  <si>
+    <t>1.cad_flg</t>
+  </si>
+  <si>
+    <t>1.stroke_flg</t>
+  </si>
+  <si>
+    <t>1.mal_flg</t>
+  </si>
+  <si>
+    <t>1.resp_flg</t>
+  </si>
+  <si>
+    <t>map_1st</t>
+  </si>
+  <si>
+    <t>hr_1st</t>
+  </si>
+  <si>
+    <t>spo2_1st</t>
+  </si>
+  <si>
+    <t>temp_1st</t>
+  </si>
+  <si>
+    <t>wbc_first</t>
+  </si>
+  <si>
+    <t>hgb_first</t>
+  </si>
+  <si>
+    <t>platelet_first</t>
+  </si>
+  <si>
+    <t>sodium_first</t>
+  </si>
+  <si>
+    <t>potassium_first</t>
+  </si>
+  <si>
+    <t>tco2_first</t>
+  </si>
+  <si>
+    <t>chloride_first</t>
+  </si>
+  <si>
+    <t>bun_first</t>
+  </si>
+  <si>
+    <t>creatinine_first</t>
+  </si>
+  <si>
+    <t>po2_first</t>
+  </si>
+  <si>
+    <t>pco2_first</t>
+  </si>
+  <si>
+    <t>PS model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1491</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_icu_admission</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU (ref) vs CSRU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUROC: 0.81</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL: p=0.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>342        351</t>
+  </si>
+  <si>
+    <t>84.44      86.67</t>
+  </si>
+  <si>
+    <t>63         54</t>
+  </si>
+  <si>
+    <t>15.56      13.33</t>
+  </si>
+  <si>
+    <t>405        405</t>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switched to DNR and CMO (redo)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~46.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1075 (361~2385)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1299 (352~2743)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.5~1.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (1.4~3.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 (0.4~1.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 (0.6~2.6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (1.4~2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7 (1.6~5.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (2~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 (5~11)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 (2~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (3~11)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 (1~2.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8 (1.8~4.9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 (1.5~5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 (2.3~7.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (5~8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (4~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Unit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>288 (26.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (47.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 (44.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co-morbidities</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>97 (12.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>116 (11.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 (12.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 (10.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>82 (10.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (12.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (9.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (3.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (3.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (3.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (2.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (4.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>61 (6.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 (4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 (10.23%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 (7.72%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (11.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (6.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 (7.32%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 (6.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (8.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (9.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>92 (11.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (16.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (14.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>278 (35.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 (34.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (35.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.6 (11~14.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.7 (11~14.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 (190~304)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>237 (177~294)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (100~107)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (101~108)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV during ICU stay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALINE_FLG</t>
+  </si>
+  <si>
+    <t>DAY_28_FLG</t>
+  </si>
+  <si>
+    <t>0          1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>100.00     100.00</t>
+  </si>
+  <si>
+    <t>Fisher's exact =</t>
+  </si>
+  <si>
+    <t>344 (43.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>406 (41.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>694 (70.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 (10.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>984 (55.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Discharge from ICU</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -313,648 +955,6 @@
   </si>
   <si>
     <t>Age (yr.)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA Score</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender (Female)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>205 (58.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (5~8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Unit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>504 (63.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>290 (29.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>184 (52.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>288 (26.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (47.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>156 (44.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co-morbidities</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>97 (12.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>116 (11.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 (12.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>36 (10.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>82 (10.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (12.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (9.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (3.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (3.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (3.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 (2.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (4.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61 (6.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 (4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>81 (10.23%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>76 (7.72%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>39 (11.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (6.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>72 (7.32%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 (6.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 (6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (8.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (9.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>92 (11.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (16.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (14.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>278 (35.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 (29.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>121 (34.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (35.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.6 (7.8~14.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.8 (8.5~15.9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (11.3~14.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.6 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.7 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>246 (190~304)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>237 (177~294)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (100~107)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (101~108)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~21)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (12~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV during ICU stay</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALINE_FLG</t>
-  </si>
-  <si>
-    <t>DAY_28_FLG</t>
-  </si>
-  <si>
-    <t>0          1</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>100.00     100.00</t>
-  </si>
-  <si>
-    <t>Fisher's exact =</t>
-  </si>
-  <si>
-    <t>344 (43.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>406 (41.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>694 (70.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>34 (10.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>984 (55.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>792 (44.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>348 (50%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>56 (40~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>53  (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>54 (38~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aline_flg</t>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
-  </si>
-  <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>P&gt;z</t>
-  </si>
-  <si>
-    <t>[95% Conf.</t>
-  </si>
-  <si>
-    <t>Interval]</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>weight_first</t>
-  </si>
-  <si>
-    <t>sofa_first</t>
-  </si>
-  <si>
-    <t>hour_icu_intime</t>
-  </si>
-  <si>
-    <t>1.chf_flg</t>
-  </si>
-  <si>
-    <t>1.afib_flg</t>
-  </si>
-  <si>
-    <t>1.renal_flg</t>
-  </si>
-  <si>
-    <t>1.liver_flg</t>
-  </si>
-  <si>
-    <t>1.copd_flg</t>
-  </si>
-  <si>
-    <t>1.cad_flg</t>
-  </si>
-  <si>
-    <t>1.stroke_flg</t>
-  </si>
-  <si>
-    <t>1.mal_flg</t>
-  </si>
-  <si>
-    <t>1.resp_flg</t>
-  </si>
-  <si>
-    <t>map_1st</t>
-  </si>
-  <si>
-    <t>hr_1st</t>
-  </si>
-  <si>
-    <t>spo2_1st</t>
-  </si>
-  <si>
-    <t>temp_1st</t>
-  </si>
-  <si>
-    <t>wbc_first</t>
-  </si>
-  <si>
-    <t>hgb_first</t>
-  </si>
-  <si>
-    <t>platelet_first</t>
-  </si>
-  <si>
-    <t>sodium_first</t>
-  </si>
-  <si>
-    <t>potassium_first</t>
-  </si>
-  <si>
-    <t>tco2_first</t>
-  </si>
-  <si>
-    <t>chloride_first</t>
-  </si>
-  <si>
-    <t>bun_first</t>
-  </si>
-  <si>
-    <t>creatinine_first</t>
-  </si>
-  <si>
-    <t>po2_first</t>
-  </si>
-  <si>
-    <t>pco2_first</t>
-  </si>
-  <si>
-    <t>PS model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=1491</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_icu_admission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU (ref) vs CSRU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thur</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUROC: 0.81</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL: p=0.4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.8 (11.2 ~14.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.7 (8~14.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5 (8.4~14.7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>342        351</t>
-  </si>
-  <si>
-    <t>84.44      86.67</t>
-  </si>
-  <si>
-    <t>63         54</t>
-  </si>
-  <si>
-    <t>15.56      13.33</t>
-  </si>
-  <si>
-    <t>405        405</t>
-  </si>
-  <si>
-    <t>140 (138~143)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140 (137~142)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (184~303)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (186~289)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (22~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (21~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.6~4.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.7~4.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switched to DNR and CMO (redo)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 (35~46.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1075 (361~2385)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1299 (352~2743)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.5~1.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 (1.4~3.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75 (0.4~1.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 (0.6~2.6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (1.4~2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.7 (1.6~5.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (2~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 (5~11)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 (2~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (3~11)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8 (1~2.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.8 (1.8~4.9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 (1.5~5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3 (2.3~7.3)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1132,15 +1132,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1152,24 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1224,6 +1197,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1573,720 +1573,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>69</v>
+      <c r="A2" s="36"/>
+      <c r="B2" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickTop="1">
       <c r="A3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="17">
+        <v>243</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="E4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="15">
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="18">
+        <v>95</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="15">
         <v>0.36</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="18">
+      <c r="E5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="15">
         <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="18">
+        <v>90</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19">
+        <v>103</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="40">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="18">
+        <v>91</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="15">
         <v>0.7</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="E11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="15">
         <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="18">
+        <v>92</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="15">
         <v>0.1</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="E12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="18">
+        <v>94</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="15">
         <v>0.8</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="E13" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="18">
+        <v>93</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="15">
         <v>0.2</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="E14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="18">
+        <v>210</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="E15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="18">
+        <v>211</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="15">
         <v>0.5</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="E16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="17">
+        <v>212</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="14">
         <v>1E-4</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="18">
+      <c r="F17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="17">
+        <v>213</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="E18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="17">
+        <v>214</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="E19" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+        <v>242</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="18">
+        <v>215</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="15">
         <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="17">
+        <v>216</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="E22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="18">
+        <v>217</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="15">
         <v>0.01</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="E23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="18">
+        <v>218</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G24" s="18">
+      <c r="E24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="18">
+        <v>219</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="15">
         <v>0.77</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="E25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="15">
         <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="B26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="15">
         <v>0.05</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="E26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="15">
         <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="17">
+        <v>194</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="14">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="18">
+      <c r="E27" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="17">
+        <v>195</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="14">
         <v>0.02</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="18">
+      <c r="E28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="15">
         <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="18">
+        <v>196</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="15">
         <v>0.6</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="E29" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="18">
+        <v>197</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="15">
         <v>0.5</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="18">
+      <c r="E30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="17">
+        <v>198</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="14">
         <v>0.02</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="E31" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="27" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="18">
+        <v>228</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="38" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="18">
+        <v>71</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2327,181 +2327,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>14</v>
+      <c r="A1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
-      <c r="A2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="34">
+      <c r="A2" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="25">
         <v>0.152</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="25">
         <v>0.14699999999999999</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="31">
+      <c r="D2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="22">
         <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
+      <c r="A3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>239</v>
+      <c r="A4" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="A5" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="20">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>239</v>
+      <c r="A6" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="A7" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="20">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1">
-      <c r="A8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>239</v>
+      <c r="A8" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="A9" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="20">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>239</v>
+      <c r="A10" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="A11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="20">
         <v>0.3</v>
       </c>
     </row>
@@ -2533,23 +2533,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>693</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>85.56</v>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>117</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>14.44</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5">
         <v>0.42399999999999999</v>
@@ -2652,38 +2652,38 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>0.99664870000000005</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>1.000894</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>1.59127</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>7.2156000000000002</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3">
         <v>1.5041310000000001</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3">
         <v>1.183298</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3">
         <v>1.5754729999999999</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3">
         <v>1.4919450000000001</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3">
         <v>1.9040029999999999</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3">
         <v>1.127912</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>1.0259119999999999</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>1.7799700000000001</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>0.97763770000000005</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>1.537355</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>0.36014439999999998</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>0.78372209999999998</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>0.95840420000000004</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>1.382242</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>1.1597500000000001</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>1.016337</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>1.007226</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>1.0063120000000001</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>0.97394990000000004</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>1.0002230000000001</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>1.032224</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>0.95359110000000002</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>0.99973749999999995</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>0.92980370000000001</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>1.0222789999999999</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
         <v>1.023301</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
         <v>1.055034</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>1.005822</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4">
         <v>0.76309660000000001</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>1.0007079999999999</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>0.99573080000000003</v>
@@ -3509,12 +3509,12 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3543,133 +3543,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" thickBot="1">
-      <c r="A1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>14</v>
+      <c r="A1" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" thickTop="1">
-      <c r="A2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="34">
+      <c r="A2" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="25">
         <v>0.152</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="25">
         <v>0.14699999999999999</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="31">
+      <c r="D2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="22">
         <v>0.9</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="39">
+      <c r="F2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="30">
         <v>0.72</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>82</v>
+      <c r="H2" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39">
-      <c r="A3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="41">
+      <c r="A3" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="32">
         <v>0.71</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>82</v>
+      <c r="H3" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39">
-      <c r="A4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="41">
+      <c r="A4" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="32">
         <v>0.74</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>82</v>
+      <c r="H4" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="39">
-      <c r="A5" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="A5" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="20">
         <v>0.3</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="29"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Figures_Tables/result_tables/tables.xlsx
+++ b/Figures_Tables/result_tables/tables.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25440" windowHeight="13960" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 2_old" sheetId="2" r:id="rId2"/>
     <sheet name="Sensitivity study" sheetId="3" r:id="rId3"/>
     <sheet name="Ps model" sheetId="4" r:id="rId4"/>
     <sheet name="Table2_New" sheetId="5" r:id="rId5"/>
+    <sheet name="MV_indication_comparison" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -23,651 +24,683 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="254">
+  <si>
+    <t>Pneumonia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (4.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>67 (20%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 (20.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (4.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (7.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>147 (18.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aline_flg</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P&gt;z</t>
+  </si>
+  <si>
+    <t>[95% Conf.</t>
+  </si>
+  <si>
+    <t>Interval]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>weight_first</t>
+  </si>
+  <si>
+    <t>sofa_first</t>
+  </si>
+  <si>
+    <t>hour_icu_intime</t>
+  </si>
+  <si>
+    <t>1.chf_flg</t>
+  </si>
+  <si>
+    <t>1.afib_flg</t>
+  </si>
+  <si>
+    <t>1.renal_flg</t>
+  </si>
+  <si>
+    <t>1.liver_flg</t>
+  </si>
+  <si>
+    <t>1.copd_flg</t>
+  </si>
+  <si>
+    <t>1.cad_flg</t>
+  </si>
+  <si>
+    <t>1.stroke_flg</t>
+  </si>
+  <si>
+    <t>1.mal_flg</t>
+  </si>
+  <si>
+    <t>1.resp_flg</t>
+  </si>
+  <si>
+    <t>map_1st</t>
+  </si>
+  <si>
+    <t>hr_1st</t>
+  </si>
+  <si>
+    <t>spo2_1st</t>
+  </si>
+  <si>
+    <t>temp_1st</t>
+  </si>
+  <si>
+    <t>wbc_first</t>
+  </si>
+  <si>
+    <t>hgb_first</t>
+  </si>
+  <si>
+    <t>platelet_first</t>
+  </si>
+  <si>
+    <t>sodium_first</t>
+  </si>
+  <si>
+    <t>potassium_first</t>
+  </si>
+  <si>
+    <t>tco2_first</t>
+  </si>
+  <si>
+    <t>chloride_first</t>
+  </si>
+  <si>
+    <t>bun_first</t>
+  </si>
+  <si>
+    <t>creatinine_first</t>
+  </si>
+  <si>
+    <t>po2_first</t>
+  </si>
+  <si>
+    <t>pco2_first</t>
+  </si>
+  <si>
+    <t>PS model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1491</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_icu_admission</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU (ref) vs CSRU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUROC: 0.81</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL: p=0.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>342        351</t>
+  </si>
+  <si>
+    <t>84.44      86.67</t>
+  </si>
+  <si>
+    <t>63         54</t>
+  </si>
+  <si>
+    <t>15.56      13.33</t>
+  </si>
+  <si>
+    <t>405        405</t>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switched to DNR and CMO (redo)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~46.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1075 (361~2385)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1299 (352~2743)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.5~1.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (1.4~3.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75 (0.4~1.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 (0.6~2.6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (1.4~2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7 (1.6~5.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (2~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 (5~11)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 (2~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (3~11)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 (1~2.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8 (1.8~4.9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 (1.5~5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3 (2.3~7.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (5~8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (4~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Unit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>288 (26.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (47.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 (44.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co-morbidities</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>97 (12.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>116 (11.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 (12.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 (10.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>82 (10.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (12.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (9.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (3.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (3.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (3.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (2.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (4.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>61 (6.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 (4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 (10.23%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 (7.72%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (11.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (6.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 (7.32%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 (6.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (8.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (9.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>92 (11.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (16.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (14.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>278 (35.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 (34.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (35.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.6 (11~14.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.7 (11~14.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 (190~304)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>237 (177~294)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (100~107)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (101~108)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV during ICU stay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALINE_FLG</t>
+  </si>
+  <si>
+    <t>DAY_28_FLG</t>
+  </si>
+  <si>
+    <t>0          1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>100.00     100.00</t>
+  </si>
+  <si>
+    <t>Fisher's exact =</t>
+  </si>
+  <si>
+    <t>344 (43.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>406 (41.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>694 (70.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 (10.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>984 (55.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from ICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>792 (44.6%)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>348 (50%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>56 (40~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>53  (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>54 (38~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aline_flg</t>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
-  </si>
-  <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>P&gt;z</t>
-  </si>
-  <si>
-    <t>[95% Conf.</t>
-  </si>
-  <si>
-    <t>Interval]</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>weight_first</t>
-  </si>
-  <si>
-    <t>sofa_first</t>
-  </si>
-  <si>
-    <t>hour_icu_intime</t>
-  </si>
-  <si>
-    <t>1.chf_flg</t>
-  </si>
-  <si>
-    <t>1.afib_flg</t>
-  </si>
-  <si>
-    <t>1.renal_flg</t>
-  </si>
-  <si>
-    <t>1.liver_flg</t>
-  </si>
-  <si>
-    <t>1.copd_flg</t>
-  </si>
-  <si>
-    <t>1.cad_flg</t>
-  </si>
-  <si>
-    <t>1.stroke_flg</t>
-  </si>
-  <si>
-    <t>1.mal_flg</t>
-  </si>
-  <si>
-    <t>1.resp_flg</t>
-  </si>
-  <si>
-    <t>map_1st</t>
-  </si>
-  <si>
-    <t>hr_1st</t>
-  </si>
-  <si>
-    <t>spo2_1st</t>
-  </si>
-  <si>
-    <t>temp_1st</t>
-  </si>
-  <si>
-    <t>wbc_first</t>
-  </si>
-  <si>
-    <t>hgb_first</t>
-  </si>
-  <si>
-    <t>platelet_first</t>
-  </si>
-  <si>
-    <t>sodium_first</t>
-  </si>
-  <si>
-    <t>potassium_first</t>
-  </si>
-  <si>
-    <t>tco2_first</t>
-  </si>
-  <si>
-    <t>chloride_first</t>
-  </si>
-  <si>
-    <t>bun_first</t>
-  </si>
-  <si>
-    <t>creatinine_first</t>
-  </si>
-  <si>
-    <t>po2_first</t>
-  </si>
-  <si>
-    <t>pco2_first</t>
-  </si>
-  <si>
-    <t>PS model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=1491</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_icu_admission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU (ref) vs CSRU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thur</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUROC: 0.81</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL: p=0.4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.8 (11.2 ~14.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.7 (8~14.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5 (8.4~14.7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>342        351</t>
-  </si>
-  <si>
-    <t>84.44      86.67</t>
-  </si>
-  <si>
-    <t>63         54</t>
-  </si>
-  <si>
-    <t>15.56      13.33</t>
-  </si>
-  <si>
-    <t>405        405</t>
-  </si>
-  <si>
-    <t>140 (138~143)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140 (137~142)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (184~303)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (186~289)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (22~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (21~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.6~4.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.7~4.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switched to DNR and CMO (redo)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 (35~46.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1075 (361~2385)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1299 (352~2743)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.5~1.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 (1.4~3.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75 (0.4~1.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 (0.6~2.6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (1.4~2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.7 (1.6~5.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (2~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 (5~11)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 (2~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (3~11)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8 (1~2.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.8 (1.8~4.9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 (1.5~5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3 (2.3~7.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA Score</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender (Female)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>205 (58.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (5~8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Unit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>504 (63.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>290 (29.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>184 (52.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>288 (26.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (47.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>156 (44.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co-morbidities</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>97 (12.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>116 (11.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 (12.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>36 (10.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>82 (10.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (12.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (9.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (3.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (3.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (3.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 (2.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (4.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61 (6.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 (4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>81 (10.23%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>76 (7.72%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>39 (11.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (6.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>72 (7.32%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 (6.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 (6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (8.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (9.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>92 (11.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (16.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (14.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>278 (35.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 (29.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>121 (34.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (35.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.6 (7.8~14.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.8 (8.5~15.9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (11.3~14.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.6 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.7 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>246 (190~304)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>237 (177~294)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (100~107)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (101~108)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~21)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (12~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV during ICU stay</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALINE_FLG</t>
-  </si>
-  <si>
-    <t>DAY_28_FLG</t>
-  </si>
-  <si>
-    <t>0          1</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>100.00     100.00</t>
-  </si>
-  <si>
-    <t>Fisher's exact =</t>
-  </si>
-  <si>
-    <t>344 (43.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>406 (41.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>694 (70.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>34 (10.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>984 (55.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge from ICU</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -955,6 +988,14 @@
   </si>
   <si>
     <t>Age (yr.)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disease</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -962,11 +1003,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8">
@@ -1107,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1196,6 +1233,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1555,10 +1595,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:G34"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.42578125" defaultRowHeight="12"/>
@@ -1573,82 +1613,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="12" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickTop="1">
       <c r="A3" s="11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G4" s="15">
         <v>0.4</v>
@@ -1656,22 +1696,22 @@
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D5" s="15">
         <v>0.36</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G5" s="15">
         <v>0.36</v>
@@ -1679,22 +1719,22 @@
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G6" s="15">
         <v>0.6</v>
@@ -1702,60 +1742,60 @@
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="37" t="s">
-        <v>100</v>
+      <c r="D7" s="38" t="s">
+        <v>106</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="40">
+      <c r="G7" s="41">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="38"/>
+        <v>112</v>
+      </c>
+      <c r="D8" s="39"/>
       <c r="E8" s="15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="41"/>
+        <v>114</v>
+      </c>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="39"/>
+        <v>174</v>
+      </c>
+      <c r="D9" s="40"/>
       <c r="E9" s="15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="42"/>
+        <v>118</v>
+      </c>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1766,22 +1806,22 @@
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D11" s="15">
         <v>0.7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G11" s="15">
         <v>0.4</v>
@@ -1789,22 +1829,22 @@
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D12" s="15">
         <v>0.1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G12" s="15">
         <v>0.7</v>
@@ -1812,22 +1852,22 @@
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D13" s="15">
         <v>0.8</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G13" s="15">
         <v>0.7</v>
@@ -1835,22 +1875,22 @@
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D14" s="15">
         <v>0.2</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G14" s="15">
         <v>0.6</v>
@@ -1858,22 +1898,22 @@
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D15" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G15" s="15">
         <v>0.5</v>
@@ -1881,22 +1921,22 @@
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D16" s="15">
         <v>0.5</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G16" s="15">
         <v>0.8</v>
@@ -1904,22 +1944,22 @@
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D17" s="14">
         <v>1E-4</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G17" s="15">
         <v>1</v>
@@ -1927,22 +1967,22 @@
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D18" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G18" s="15">
         <v>0.6</v>
@@ -1950,171 +1990,171 @@
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D19" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G19" s="15">
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="17" customHeight="1">
+    <row r="20" spans="1:7" ht="26" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="34">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G21" s="15">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="A22" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.01</v>
+        <v>153</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G23" s="15">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="15">
-        <v>7.0000000000000001E-3</v>
+        <v>155</v>
+      </c>
+      <c r="D24" s="14">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="G24" s="15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="D25" s="15">
-        <v>0.77</v>
+        <v>0.01</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G25" s="15">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="15">
-        <v>0.05</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G26" s="15">
         <v>0.6</v>
@@ -2122,175 +2162,222 @@
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="14">
-        <v>2.9999999999999997E-4</v>
+        <v>76</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.77</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="G27" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.02</v>
+        <v>74</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.05</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="G28" s="15">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.6</v>
+        <v>160</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G29" s="15">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0.5</v>
+        <v>162</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.02</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="G30" s="15">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="14">
+        <v>163</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="14">
         <v>0.02</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" ht="27" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="G33" s="15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="38" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="15">
+    <row r="34" spans="1:7" ht="17" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="27" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="38" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -2314,7 +2401,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
@@ -2328,24 +2415,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
       <c r="A2" s="21" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B2" s="25">
         <v>0.152</v>
@@ -2354,7 +2441,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E2" s="22">
         <v>0.9</v>
@@ -2362,7 +2449,7 @@
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2371,33 +2458,33 @@
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E5" s="20">
         <v>6.0000000000000001E-3</v>
@@ -2405,33 +2492,33 @@
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E7" s="20">
         <v>3.0000000000000001E-3</v>
@@ -2439,33 +2526,33 @@
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E9" s="20">
         <v>2.9999999999999997E-4</v>
@@ -2473,39 +2560,40 @@
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E11" s="20">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2533,23 +2621,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2557,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>693</v>
@@ -2565,7 +2653,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>85.56</v>
@@ -2579,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>117</v>
@@ -2587,7 +2675,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>14.44</v>
@@ -2595,10 +2683,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -2606,7 +2694,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2617,13 +2705,14 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C16" s="5">
         <v>0.42399999999999999</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2652,38 +2741,38 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>0.99664870000000005</v>
@@ -2706,7 +2795,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3">
         <v>1.000894</v>
@@ -2729,7 +2818,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3">
         <v>1.59127</v>
@@ -2752,7 +2841,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>7.2156000000000002</v>
@@ -2781,7 +2870,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2790,7 +2879,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>1.5041310000000001</v>
@@ -2813,7 +2902,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3">
         <v>1.183298</v>
@@ -2836,7 +2925,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3">
         <v>1.5754729999999999</v>
@@ -2859,7 +2948,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3">
         <v>1.4919450000000001</v>
@@ -2882,7 +2971,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3">
         <v>1.9040029999999999</v>
@@ -2905,7 +2994,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3">
         <v>1.127912</v>
@@ -2934,7 +3023,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
         <v>1.0259119999999999</v>
@@ -2957,7 +3046,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
         <v>1.7799700000000001</v>
@@ -2980,7 +3069,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3">
         <v>0.97763770000000005</v>
@@ -3003,7 +3092,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3">
         <v>1.537355</v>
@@ -3026,7 +3115,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3">
         <v>0.36014439999999998</v>
@@ -3049,7 +3138,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3">
         <v>0.78372209999999998</v>
@@ -3072,7 +3161,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <v>0.95840420000000004</v>
@@ -3095,7 +3184,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3">
         <v>1.382242</v>
@@ -3118,7 +3207,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3">
         <v>1.1597500000000001</v>
@@ -3141,7 +3230,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3">
         <v>1.016337</v>
@@ -3164,7 +3253,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
         <v>1.007226</v>
@@ -3187,7 +3276,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3">
         <v>1.0063120000000001</v>
@@ -3210,7 +3299,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
         <v>0.97394990000000004</v>
@@ -3233,7 +3322,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3">
         <v>1.0002230000000001</v>
@@ -3256,7 +3345,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3">
         <v>1.032224</v>
@@ -3279,7 +3368,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3">
         <v>0.95359110000000002</v>
@@ -3302,7 +3391,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3">
         <v>0.99973749999999995</v>
@@ -3325,7 +3414,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4">
         <v>0.92980370000000001</v>
@@ -3348,7 +3437,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4">
         <v>1.0222789999999999</v>
@@ -3371,7 +3460,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4">
         <v>1.023301</v>
@@ -3394,7 +3483,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4">
         <v>1.055034</v>
@@ -3417,7 +3506,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4">
         <v>1.005822</v>
@@ -3440,7 +3529,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4">
         <v>0.76309660000000001</v>
@@ -3463,7 +3552,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B41" s="4">
         <v>1.0007079999999999</v>
@@ -3486,7 +3575,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4">
         <v>0.99573080000000003</v>
@@ -3509,15 +3598,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3533,7 +3623,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3544,36 +3634,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" thickTop="1">
       <c r="A2" s="21" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B2" s="25">
         <v>0.152</v>
@@ -3582,86 +3672,86 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E2" s="22">
         <v>0.9</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G2" s="30">
         <v>0.72</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39">
       <c r="A3" s="17" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="20"/>
       <c r="E3" s="19"/>
       <c r="F3" s="16" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G3" s="32">
         <v>0.71</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39">
       <c r="A4" s="18" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G4" s="32">
         <v>0.74</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="39">
       <c r="A5" s="18" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E5" s="20">
         <v>0.3</v>
@@ -3672,6 +3762,30 @@
       <c r="I5" s="20"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Figures_Tables/result_tables/tables.xlsx
+++ b/Figures_Tables/result_tables/tables.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13860" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 2_old" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sensitivity study" sheetId="3" r:id="rId3"/>
     <sheet name="Ps model" sheetId="4" r:id="rId4"/>
-    <sheet name="Table2_New" sheetId="5" r:id="rId5"/>
+    <sheet name="Competing risk" sheetId="5" r:id="rId5"/>
     <sheet name="MV_indication_comparison" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
@@ -24,651 +24,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="254">
-  <si>
-    <t>Pneumonia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (4.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>67 (20%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>68 (20.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (4.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (7.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>147 (18.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>348 (50%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>56 (40~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>53  (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>54 (38~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aline_flg</t>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
-  </si>
-  <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>P&gt;z</t>
-  </si>
-  <si>
-    <t>[95% Conf.</t>
-  </si>
-  <si>
-    <t>Interval]</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>weight_first</t>
-  </si>
-  <si>
-    <t>sofa_first</t>
-  </si>
-  <si>
-    <t>hour_icu_intime</t>
-  </si>
-  <si>
-    <t>1.chf_flg</t>
-  </si>
-  <si>
-    <t>1.afib_flg</t>
-  </si>
-  <si>
-    <t>1.renal_flg</t>
-  </si>
-  <si>
-    <t>1.liver_flg</t>
-  </si>
-  <si>
-    <t>1.copd_flg</t>
-  </si>
-  <si>
-    <t>1.cad_flg</t>
-  </si>
-  <si>
-    <t>1.stroke_flg</t>
-  </si>
-  <si>
-    <t>1.mal_flg</t>
-  </si>
-  <si>
-    <t>1.resp_flg</t>
-  </si>
-  <si>
-    <t>map_1st</t>
-  </si>
-  <si>
-    <t>hr_1st</t>
-  </si>
-  <si>
-    <t>spo2_1st</t>
-  </si>
-  <si>
-    <t>temp_1st</t>
-  </si>
-  <si>
-    <t>wbc_first</t>
-  </si>
-  <si>
-    <t>hgb_first</t>
-  </si>
-  <si>
-    <t>platelet_first</t>
-  </si>
-  <si>
-    <t>sodium_first</t>
-  </si>
-  <si>
-    <t>potassium_first</t>
-  </si>
-  <si>
-    <t>tco2_first</t>
-  </si>
-  <si>
-    <t>chloride_first</t>
-  </si>
-  <si>
-    <t>bun_first</t>
-  </si>
-  <si>
-    <t>creatinine_first</t>
-  </si>
-  <si>
-    <t>po2_first</t>
-  </si>
-  <si>
-    <t>pco2_first</t>
-  </si>
-  <si>
-    <t>PS model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=1491</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_icu_admission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU (ref) vs CSRU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thur</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUROC: 0.81</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL: p=0.4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.8 (11.2 ~14.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.7 (8~14.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5 (8.4~14.7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>342        351</t>
-  </si>
-  <si>
-    <t>84.44      86.67</t>
-  </si>
-  <si>
-    <t>63         54</t>
-  </si>
-  <si>
-    <t>15.56      13.33</t>
-  </si>
-  <si>
-    <t>405        405</t>
-  </si>
-  <si>
-    <t>140 (138~143)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140 (137~142)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (184~303)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (186~289)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (22~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (21~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.6~4.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.7~4.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switched to DNR and CMO (redo)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 (35~46.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1075 (361~2385)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1299 (352~2743)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.5~1.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 (1.4~3.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75 (0.4~1.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1 (0.6~2.6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (1.4~2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.7 (1.6~5.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (2~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 (5~11)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 (2~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (3~11)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8 (1~2.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.8 (1.8~4.9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 (1.5~5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3 (2.3~7.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA Score</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARDS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender (Female)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>205 (58.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (5~8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Unit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>504 (63.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>290 (29.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>184 (52.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>288 (26.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (47.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>156 (44.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co-morbidities</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>97 (12.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>116 (11.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 (12.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>36 (10.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>82 (10.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (12.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (9.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (3.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (3.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (3.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 (2.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (4.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61 (6.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 (4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>81 (10.23%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>76 (7.72%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>39 (11.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (6.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>72 (7.32%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 (6.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 (6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (8.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (9.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>92 (11.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (16.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (14.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>278 (35.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 (29.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>121 (34.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (35.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.6 (7.8~14.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.8 (8.5~15.9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (11.3~14.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.6 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.7 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>246 (190~304)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>237 (177~294)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (100~107)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (101~108)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~21)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (12~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV during ICU stay</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALINE_FLG</t>
-  </si>
-  <si>
-    <t>DAY_28_FLG</t>
-  </si>
-  <si>
-    <t>0          1</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>100.00     100.00</t>
-  </si>
-  <si>
-    <t>Fisher's exact =</t>
-  </si>
-  <si>
-    <t>344 (43.5%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="254">
+  <si>
+    <t>Matched Cohort (696)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-IAC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab tests</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age (yr.)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (+/-1.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7 (+/-3.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 (+/-2.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 (+/-5.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 (+/-4.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 (+/-7.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 (+/-4.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.6 (+/-7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 (+/-2.6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (+/-1.6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 (+/-5.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-0.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 (+/-1.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1564 (+/-1459)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1758 (+/-1852)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -967,35 +417,585 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Matched Cohort (696)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-IAC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lab tests</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age (yr.)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disease</t>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA Score</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~6)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (5~8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (4~7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Unit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>288 (26.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (47.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 (44.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co-morbidities</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>97 (12.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>116 (11.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 (12.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 (10.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>82 (10.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (12.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (9.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (3.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (3.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (3.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (2.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (4.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>61 (6.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 (4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 (10.23%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 (7.72%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (11.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (6.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 (7.32%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 (6.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (8.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (9.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>92 (11.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (16.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (14.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>278 (35.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 (34.7%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (35.9%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.6 (11~14.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.7 (11~14.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 (190~304)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>237 (177~294)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (100~107)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (101~108)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.1)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV during ICU stay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALINE_FLG</t>
+  </si>
+  <si>
+    <t>DAY_28_FLG</t>
+  </si>
+  <si>
+    <t>0          1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>100.00     100.00</t>
+  </si>
+  <si>
+    <t>Fisher's exact =</t>
+  </si>
+  <si>
+    <t>344 (43.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (4.8%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.4%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>67 (20%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 (20.3%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (4.2%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (7.1%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>147 (18.6%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aline_flg</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P&gt;z</t>
+  </si>
+  <si>
+    <t>[95% Conf.</t>
+  </si>
+  <si>
+    <t>Interval]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>weight_first</t>
+  </si>
+  <si>
+    <t>sofa_first</t>
+  </si>
+  <si>
+    <t>hour_icu_intime</t>
+  </si>
+  <si>
+    <t>1.chf_flg</t>
+  </si>
+  <si>
+    <t>1.afib_flg</t>
+  </si>
+  <si>
+    <t>1.renal_flg</t>
+  </si>
+  <si>
+    <t>1.liver_flg</t>
+  </si>
+  <si>
+    <t>1.copd_flg</t>
+  </si>
+  <si>
+    <t>1.cad_flg</t>
+  </si>
+  <si>
+    <t>1.stroke_flg</t>
+  </si>
+  <si>
+    <t>1.mal_flg</t>
+  </si>
+  <si>
+    <t>1.resp_flg</t>
+  </si>
+  <si>
+    <t>map_1st</t>
+  </si>
+  <si>
+    <t>hr_1st</t>
+  </si>
+  <si>
+    <t>spo2_1st</t>
+  </si>
+  <si>
+    <t>temp_1st</t>
+  </si>
+  <si>
+    <t>wbc_first</t>
+  </si>
+  <si>
+    <t>hgb_first</t>
+  </si>
+  <si>
+    <t>platelet_first</t>
+  </si>
+  <si>
+    <t>sodium_first</t>
+  </si>
+  <si>
+    <t>potassium_first</t>
+  </si>
+  <si>
+    <t>tco2_first</t>
+  </si>
+  <si>
+    <t>chloride_first</t>
+  </si>
+  <si>
+    <t>bun_first</t>
+  </si>
+  <si>
+    <t>creatinine_first</t>
+  </si>
+  <si>
+    <t>po2_first</t>
+  </si>
+  <si>
+    <t>pco2_first</t>
+  </si>
+  <si>
+    <t>PS model</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1491</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_icu_admission</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU (ref) vs CSRU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUROC: 0.81</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL: p=0.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>342        351</t>
+  </si>
+  <si>
+    <t>84.44      86.67</t>
+  </si>
+  <si>
+    <t>63         54</t>
+  </si>
+  <si>
+    <t>15.56      13.33</t>
+  </si>
+  <si>
+    <t>405        405</t>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switched to DNR and CMO (redo)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~46.5)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1003,7 +1003,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8">
@@ -1597,7 +1601,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="H21" sqref="H21:J34"/>
     </sheetView>
   </sheetViews>
@@ -1614,15 +1618,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
@@ -1630,65 +1634,65 @@
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="12" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>249</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickTop="1">
       <c r="A3" s="11" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="D4" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="G4" s="15">
         <v>0.4</v>
@@ -1696,22 +1700,22 @@
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="D5" s="15">
         <v>0.36</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" s="15">
         <v>0.36</v>
@@ -1719,22 +1723,22 @@
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G6" s="15">
         <v>0.6</v>
@@ -1742,12 +1746,12 @@
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -1757,45 +1761,45 @@
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1806,22 +1810,22 @@
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" s="15">
         <v>0.7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G11" s="15">
         <v>0.4</v>
@@ -1829,22 +1833,22 @@
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D12" s="15">
         <v>0.1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G12" s="15">
         <v>0.7</v>
@@ -1852,22 +1856,22 @@
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="15">
         <v>0.8</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G13" s="15">
         <v>0.7</v>
@@ -1875,22 +1879,22 @@
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="15">
         <v>0.2</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G14" s="15">
         <v>0.6</v>
@@ -1898,22 +1902,22 @@
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G15" s="15">
         <v>0.5</v>
@@ -1921,22 +1925,22 @@
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" s="15">
         <v>0.5</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G16" s="15">
         <v>0.8</v>
@@ -1944,22 +1948,22 @@
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D17" s="14">
         <v>1E-4</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G17" s="15">
         <v>1</v>
@@ -1967,22 +1971,22 @@
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D18" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G18" s="15">
         <v>0.6</v>
@@ -1990,22 +1994,22 @@
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" s="15">
         <v>0.8</v>
@@ -2013,22 +2017,22 @@
     </row>
     <row r="20" spans="1:7" ht="26" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="D20" s="34">
         <v>0.01</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="G20" s="15">
         <v>0.8</v>
@@ -2036,22 +2040,22 @@
     </row>
     <row r="21" spans="1:7" ht="26" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="D21" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="G21" s="15">
         <v>1</v>
@@ -2059,7 +2063,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2070,22 +2074,22 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="G23" s="15">
         <v>0.3</v>
@@ -2093,22 +2097,22 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D24" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G24" s="15">
         <v>0.5</v>
@@ -2116,22 +2120,22 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D25" s="15">
         <v>0.01</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="G25" s="15">
         <v>0.7</v>
@@ -2139,22 +2143,22 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="D26" s="15">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="G26" s="15">
         <v>0.6</v>
@@ -2162,22 +2166,22 @@
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="D27" s="15">
         <v>0.77</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="G27" s="15">
         <v>0.8</v>
@@ -2185,22 +2189,22 @@
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="D28" s="15">
         <v>0.05</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="G28" s="15">
         <v>0.6</v>
@@ -2208,22 +2212,22 @@
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D29" s="14">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G29" s="15">
         <v>1</v>
@@ -2231,22 +2235,22 @@
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D30" s="14">
         <v>0.02</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G30" s="15">
         <v>0.3</v>
@@ -2254,22 +2258,22 @@
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D31" s="15">
         <v>0.6</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="G31" s="15">
         <v>7.0000000000000007E-2</v>
@@ -2277,22 +2281,22 @@
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="D32" s="15">
         <v>0.5</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="G32" s="15">
         <v>0.7</v>
@@ -2300,22 +2304,22 @@
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="D33" s="14">
         <v>0.02</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="G33" s="15">
         <v>0.2</v>
@@ -2332,22 +2336,22 @@
     </row>
     <row r="35" spans="1:7" ht="27" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="G35" s="15">
         <v>0.2</v>
@@ -2355,29 +2359,28 @@
     </row>
     <row r="36" spans="1:7" ht="38" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="G36" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -2401,8 +2404,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2415,24 +2418,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
       <c r="A2" s="21" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="B2" s="25">
         <v>0.152</v>
@@ -2441,7 +2444,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="E2" s="22">
         <v>0.9</v>
@@ -2449,7 +2452,7 @@
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2458,33 +2461,33 @@
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="E5" s="20">
         <v>6.0000000000000001E-3</v>
@@ -2492,33 +2495,33 @@
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="E7" s="20">
         <v>3.0000000000000001E-3</v>
@@ -2526,33 +2529,33 @@
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="E9" s="20">
         <v>2.9999999999999997E-4</v>
@@ -2560,40 +2563,39 @@
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="E11" s="20">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2621,23 +2623,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2645,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="C7">
         <v>693</v>
@@ -2653,7 +2655,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>239</v>
       </c>
       <c r="C8">
         <v>85.56</v>
@@ -2667,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="C10">
         <v>117</v>
@@ -2675,7 +2677,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="C11">
         <v>14.44</v>
@@ -2683,10 +2685,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -2694,7 +2696,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2705,14 +2707,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C16" s="5">
         <v>0.42399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2741,38 +2742,38 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3">
         <v>0.99664870000000005</v>
@@ -2795,7 +2796,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="B6" s="3">
         <v>1.000894</v>
@@ -2818,7 +2819,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="B7" s="3">
         <v>1.59127</v>
@@ -2841,7 +2842,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="B8" s="3">
         <v>7.2156000000000002</v>
@@ -2870,7 +2871,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2879,7 +2880,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="B11" s="3">
         <v>1.5041310000000001</v>
@@ -2902,7 +2903,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="B12" s="3">
         <v>1.183298</v>
@@ -2925,7 +2926,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="B13" s="3">
         <v>1.5754729999999999</v>
@@ -2948,7 +2949,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="B14" s="3">
         <v>1.4919450000000001</v>
@@ -2971,7 +2972,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="B15" s="3">
         <v>1.9040029999999999</v>
@@ -2994,7 +2995,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="B16" s="3">
         <v>1.127912</v>
@@ -3023,7 +3024,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="B18" s="3">
         <v>1.0259119999999999</v>
@@ -3046,7 +3047,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3">
         <v>1.7799700000000001</v>
@@ -3069,7 +3070,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="B20" s="3">
         <v>0.97763770000000005</v>
@@ -3092,7 +3093,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="B21" s="3">
         <v>1.537355</v>
@@ -3115,7 +3116,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="B22" s="3">
         <v>0.36014439999999998</v>
@@ -3138,7 +3139,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="B23" s="3">
         <v>0.78372209999999998</v>
@@ -3161,7 +3162,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="B24" s="3">
         <v>0.95840420000000004</v>
@@ -3184,7 +3185,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="B25" s="3">
         <v>1.382242</v>
@@ -3207,7 +3208,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="B26" s="3">
         <v>1.1597500000000001</v>
@@ -3230,7 +3231,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="B27" s="3">
         <v>1.016337</v>
@@ -3253,7 +3254,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="B28" s="3">
         <v>1.007226</v>
@@ -3276,7 +3277,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="B29" s="3">
         <v>1.0063120000000001</v>
@@ -3299,7 +3300,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="B30" s="3">
         <v>0.97394990000000004</v>
@@ -3322,7 +3323,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="B31" s="3">
         <v>1.0002230000000001</v>
@@ -3345,7 +3346,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="B32" s="3">
         <v>1.032224</v>
@@ -3368,7 +3369,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="B33" s="3">
         <v>0.95359110000000002</v>
@@ -3391,7 +3392,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="B34" s="3">
         <v>0.99973749999999995</v>
@@ -3414,7 +3415,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="B35" s="4">
         <v>0.92980370000000001</v>
@@ -3437,7 +3438,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="B36" s="4">
         <v>1.0222789999999999</v>
@@ -3460,7 +3461,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="B37" s="4">
         <v>1.023301</v>
@@ -3483,7 +3484,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="B38" s="4">
         <v>1.055034</v>
@@ -3506,7 +3507,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="B39" s="4">
         <v>1.005822</v>
@@ -3529,7 +3530,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="B40" s="4">
         <v>0.76309660000000001</v>
@@ -3552,7 +3553,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="B41" s="4">
         <v>1.0007079999999999</v>
@@ -3575,7 +3576,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="B42" s="4">
         <v>0.99573080000000003</v>
@@ -3598,16 +3599,15 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3621,10 +3621,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3632,137 +3632,72 @@
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" thickBot="1">
-      <c r="A1" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" thickTop="1">
-      <c r="A2" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="25">
-        <v>0.152</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="30">
+    <row r="3" spans="1:4" ht="27" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27" thickTop="1">
+      <c r="A4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="30">
         <v>0.72</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="39">
-      <c r="A3" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="32">
+      <c r="C4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39">
+      <c r="A5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="32">
         <v>0.71</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="39">
-      <c r="A4" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="32">
+      <c r="C5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="32">
         <v>0.74</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="39">
-      <c r="A5" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="20"/>
-    </row>
+      <c r="C6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="26"/>
+    <row r="11" spans="1:4" ht="26"/>
+    <row r="12" spans="1:4" ht="39"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3785,7 +3720,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Figures_Tables/result_tables/tables.xlsx
+++ b/Figures_Tables/result_tables/tables.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15220" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sensitivity study" sheetId="3" r:id="rId3"/>
-    <sheet name="Ps model" sheetId="4" r:id="rId4"/>
-    <sheet name="Competing risk" sheetId="5" r:id="rId5"/>
-    <sheet name="MV_indication_comparison" sheetId="6" r:id="rId6"/>
+    <sheet name="Table 1_apr15" sheetId="8" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Table 2_apr15" sheetId="9" r:id="rId3"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sensitivity study" sheetId="3" r:id="rId5"/>
+    <sheet name="Ps model" sheetId="4" r:id="rId6"/>
+    <sheet name="Competing risk" sheetId="5" r:id="rId7"/>
+    <sheet name="MV_indication_comparison" sheetId="6" r:id="rId8"/>
+    <sheet name="Aline_Duration" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="130000"/>
+  <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -24,1095 +27,1108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="283">
-  <si>
-    <t>238 (186~289)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (22~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (21~27)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.6~4.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.7~4.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switched to DNR and CMO (redo)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 (35~46.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day-of-ICU-Adm (Sunday as ref.)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hour-of-ICU-Admission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chronic Liver Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stroke</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maligant Cancer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chronic Respiratory Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mean Arterial Pressure</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart Rate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPO2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hemoglobin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelet </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Blood Cell</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potassium</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chloride</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creatinine</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCO2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.6 (7.8~14.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.8 (8.5~15.9)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (11.3~14.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.6 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.7 (11~14.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>246 (190~304)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>237 (177~294)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (100~107)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (101~108)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~21)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (12~22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV during ICU stay</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALINE_FLG</t>
-  </si>
-  <si>
-    <t>DAY_28_FLG</t>
-  </si>
-  <si>
-    <t>0          1</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>100.00     100.00</t>
-  </si>
-  <si>
-    <t>Fisher's exact =</t>
-  </si>
-  <si>
-    <t>344 (43.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (4.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>67 (20%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>68 (20.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (4.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (7.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>147 (18.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>348 (50%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>56 (40~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>53  (35~72)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>54 (38~73)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aline_flg</t>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
-  </si>
-  <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>P&gt;z</t>
-  </si>
-  <si>
-    <t>[95% Conf.</t>
-  </si>
-  <si>
-    <t>Interval]</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>weight_first</t>
-  </si>
-  <si>
-    <t>sofa_first</t>
-  </si>
-  <si>
-    <t>hour_icu_intime</t>
-  </si>
-  <si>
-    <t>1.chf_flg</t>
-  </si>
-  <si>
-    <t>1.afib_flg</t>
-  </si>
-  <si>
-    <t>1.renal_flg</t>
-  </si>
-  <si>
-    <t>1.liver_flg</t>
-  </si>
-  <si>
-    <t>1.copd_flg</t>
-  </si>
-  <si>
-    <t>1.cad_flg</t>
-  </si>
-  <si>
-    <t>1.stroke_flg</t>
-  </si>
-  <si>
-    <t>1.mal_flg</t>
-  </si>
-  <si>
-    <t>1.resp_flg</t>
-  </si>
-  <si>
-    <t>map_1st</t>
-  </si>
-  <si>
-    <t>hr_1st</t>
-  </si>
-  <si>
-    <t>spo2_1st</t>
-  </si>
-  <si>
-    <t>temp_1st</t>
-  </si>
-  <si>
-    <t>wbc_first</t>
-  </si>
-  <si>
-    <t>hgb_first</t>
-  </si>
-  <si>
-    <t>platelet_first</t>
-  </si>
-  <si>
-    <t>sodium_first</t>
-  </si>
-  <si>
-    <t>potassium_first</t>
-  </si>
-  <si>
-    <t>tco2_first</t>
-  </si>
-  <si>
-    <t>chloride_first</t>
-  </si>
-  <si>
-    <t>bun_first</t>
-  </si>
-  <si>
-    <t>creatinine_first</t>
-  </si>
-  <si>
-    <t>po2_first</t>
-  </si>
-  <si>
-    <t>pco2_first</t>
-  </si>
-  <si>
-    <t>PS model</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=1491</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_icu_admission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU (ref) vs CSRU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thur</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUROC: 0.81</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL: p=0.4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.8 (11.2 ~14.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.7 (8~14.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5 (8.4~14.7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>342        351</t>
-  </si>
-  <si>
-    <t>84.44      86.67</t>
-  </si>
-  <si>
-    <t>63         54</t>
-  </si>
-  <si>
-    <t>15.56      13.33</t>
-  </si>
-  <si>
-    <t>405        405</t>
-  </si>
-  <si>
-    <t>140 (138~143)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140 (137~142)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (184~303)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Malignance</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Respotary Disease </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hemoglobin</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Platelet</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potassium</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>206 (96~375)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 (108~337)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180 (104~340)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>187 (106~300)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>42 (37~50)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 (36~48)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.5 (37~47)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNR at Admission</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>65 (8.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>39 (4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 (5.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 (3.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 (5.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>95 (9.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 (10.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entire Cohort (1776)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variables</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA Score</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARDS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender (Female)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>205 (58.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (5~8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (4~7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Unit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>504 (63.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>290 (29.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>184 (52.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>288 (26.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (47.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>156 (44.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Co-morbidities</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>97 (12.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>116 (11.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>44 (12.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>36 (10.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>82 (10.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (12.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (9.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (3.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 (3.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (3.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 (2.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 (4.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>61 (6.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>14 (4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>81 (10.23%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>76 (7.72%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>39 (11.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (6.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>72 (7.32%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>23 (6.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>21 (6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (8.8%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (9.5%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>92 (11.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (16.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (14.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>278 (35.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 (29.2%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>121 (34.7%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (35.9%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matched Cohort (696)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="287">
   <si>
     <t>Non-IAC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>IAC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Size (95% CI)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>p-value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lab tests</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age (yr.)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disease</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 (+/-1.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.7 (+/-3.1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6 (+/-2.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2 (+/-5.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7 (+/-4.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4 (+/-7.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4 (+/-4.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.6 (+/-7)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (+/-1)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 (+/-2.6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (+/-1.6)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3 (+/-5.3)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (+/-0.8)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4 (+/-1.4)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1564 (+/-1459)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1758 (+/-1852)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>406 (41.3%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>694 (70.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>34 (10.1%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>984 (55.4%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge from ICU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>792 (44.6%)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge from Hospital</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extubation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.61~0.86</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6~0.84</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.63~0.87</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.28 (-1.44~-1.11)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.12 (-0.27~-0.04)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Secondary Outcomes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 day mortality</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 (0.62~1.46)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-IAC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect Size (95% CI)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Primary Outcome</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ICU LOS
 (non-surviors)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Hospital LOS
 (non-surviors)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Ventilation time
 (non-surviors)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Secondary Outcome</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Subhazard Ratio</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>95% CI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Chloride</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BUN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Creatinine</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PO2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PCO2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-0.66 (-0.82~-0.5)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-0.33 (-0.88~0.22)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-0.57 (-0.74~-0.41)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-0.37 (-0.82~0.07)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Ventilation time (surviors)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Blood gas test count (per day)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Total IV fluid volumn (1st day)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ICU LOS (surviors)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Hospital LOS (surviors)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-0.54 (-0.7~-0.38)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-0.78 (-1.36~-0.2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>COPD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CAD</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Stroke</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_28_flg</t>
+  </si>
+  <si>
+    <t>aline_duration</t>
+  </si>
+  <si>
+    <t>_cons</t>
+  </si>
+  <si>
+    <t>0.96 (0.62~1.47)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>288 (26.4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (47.1%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 (44.8%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co-morbidities</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>97 (12.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>116 (11.8%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 (12.6%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 (10.3%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>82 (10.4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (12.7%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (9.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (3.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (3.3%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (3.8%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (2.9%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (4.8%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>61 (6.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 (4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 (10.23%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 (7.72%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (11.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (6.4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 (7.32%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 (6.6%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (6%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (8.8%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (9.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>92 (11.6%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (16.7%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (14.7%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>278 (35.1%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 (34.7%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (35.9%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matched Cohort (696)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-IAC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab tests</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age (yr.)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (+/-1.4)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7 (+/-3.1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 (+/-2.2)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 (+/-5.3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 (+/-4.8)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 (+/-7.5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 (+/-4.5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.6 (+/-7)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 (+/-2.6)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (+/-1.6)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 (+/-5.3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-0.8)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 (+/-1.4)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1564 (+/-1459)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1758 (+/-1852)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>406 (41.3%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>694 (70.5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 (10.1%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>984 (55.4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from ICU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>792 (44.6%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from Hospital</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extubation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61~0.86</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6~0.84</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63~0.87</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.28 (-1.44~-1.11)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.12 (-0.27~-0.04)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary Outcomes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 day mortality</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 (0.62~1.46)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.renal_flg</t>
+  </si>
+  <si>
+    <t>1.liver_flg</t>
+  </si>
+  <si>
+    <t>1.copd_flg</t>
+  </si>
+  <si>
+    <t>1.cad_flg</t>
+  </si>
+  <si>
+    <t>1.stroke_flg</t>
+  </si>
+  <si>
+    <t>1.mal_flg</t>
+  </si>
+  <si>
+    <t>1.resp_flg</t>
+  </si>
+  <si>
+    <t>map_1st</t>
+  </si>
+  <si>
+    <t>hr_1st</t>
+  </si>
+  <si>
+    <t>spo2_1st</t>
+  </si>
+  <si>
+    <t>temp_1st</t>
+  </si>
+  <si>
+    <t>wbc_first</t>
+  </si>
+  <si>
+    <t>hgb_first</t>
+  </si>
+  <si>
+    <t>platelet_first</t>
+  </si>
+  <si>
+    <t>sodium_first</t>
+  </si>
+  <si>
+    <t>potassium_first</t>
+  </si>
+  <si>
+    <t>tco2_first</t>
+  </si>
+  <si>
+    <t>chloride_first</t>
+  </si>
+  <si>
+    <t>bun_first</t>
+  </si>
+  <si>
+    <t>creatinine_first</t>
+  </si>
+  <si>
+    <t>po2_first</t>
+  </si>
+  <si>
+    <t>pco2_first</t>
+  </si>
+  <si>
+    <t>PS model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1491</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_icu_admission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU (ref) vs CSRU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thur</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUROC: 0.81</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL: p=0.4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>342        351</t>
+  </si>
+  <si>
+    <t>84.44      86.67</t>
+  </si>
+  <si>
+    <t>63         54</t>
+  </si>
+  <si>
+    <t>15.56      13.33</t>
+  </si>
+  <si>
+    <t>405        405</t>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malignance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Respotary Disease </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platelet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>206 (96~375)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 (108~337)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>180 (104~340)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>187 (106~300)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>42 (37~50)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 (36~48)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.5 (37~47)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNR at Admission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 (8.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 (5.8%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 (3.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 (5.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>95 (9.7%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 (10.4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entire Cohort (1776)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA Score</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~6)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (5~8)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~7)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (4~7)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Unit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switched to DNR and CMO (redo)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~46.5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day-of-ICU-Adm (Sunday as ref.)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour-of-ICU-Admission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Liver Disease</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stroke</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maligant Cancer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Respiratory Disease</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPO2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelet </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Blood Cell</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chloride</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUN</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creatinine</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCO2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.6 (11~14.1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.7 (11~14.1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 (190~304)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>237 (177~294)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (100~107)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (101~108)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.2)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV during ICU stay</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALINE_FLG</t>
+  </si>
+  <si>
+    <t>DAY_28_FLG</t>
+  </si>
+  <si>
+    <t>0          1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>100.00     100.00</t>
+  </si>
+  <si>
+    <t>Fisher's exact =</t>
+  </si>
+  <si>
+    <t>344 (43.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (4.8%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.4%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>67 (20%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 (20.3%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (4.2%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (7.1%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>147 (18.6%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>aline_flg</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P&gt;z</t>
+  </si>
+  <si>
+    <t>[95% Conf.</t>
+  </si>
+  <si>
+    <t>Interval]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>weight_first</t>
+  </si>
+  <si>
+    <t>sofa_first</t>
+  </si>
+  <si>
+    <t>hour_icu_intime</t>
+  </si>
+  <si>
+    <t>1.chf_flg</t>
+  </si>
+  <si>
+    <t>1.afib_flg</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1140,15 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -1264,109 +1285,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1375,15 +1399,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1716,6 +1741,806 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.42578125" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="13.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="25" thickBot="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13" thickTop="1">
+      <c r="A3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="34">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="24">
+      <c r="A5" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" ht="24">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17" s="34">
+        <v>1E-4</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24">
+      <c r="A19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="34">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="34">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="34">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="24">
+      <c r="A35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="36">
+      <c r="A36" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="H21" sqref="H21:J34"/>
     </sheetView>
@@ -1732,82 +2557,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="11" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickTop="1">
       <c r="A3" s="10" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="D4" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="G4" s="14">
         <v>0.4</v>
@@ -1815,22 +2640,22 @@
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="D5" s="14">
         <v>0.36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="G5" s="14">
         <v>0.36</v>
@@ -1838,22 +2663,22 @@
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="G6" s="14">
         <v>0.6</v>
@@ -1861,60 +2686,60 @@
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="37" t="s">
-        <v>165</v>
+      <c r="D7" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="40">
+      <c r="G7" s="41">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="38"/>
+        <v>199</v>
+      </c>
+      <c r="D8" s="39"/>
       <c r="E8" s="14" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="41"/>
+        <v>201</v>
+      </c>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="39"/>
+        <v>96</v>
+      </c>
+      <c r="D9" s="40"/>
       <c r="E9" s="14" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1925,22 +2750,22 @@
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D11" s="14">
         <v>0.7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="G11" s="14">
         <v>0.4</v>
@@ -1948,22 +2773,22 @@
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="D12" s="14">
         <v>0.1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="G12" s="14">
         <v>0.7</v>
@@ -1971,22 +2796,22 @@
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="D13" s="14">
         <v>0.8</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="G13" s="14">
         <v>0.7</v>
@@ -1994,22 +2819,22 @@
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="D14" s="14">
         <v>0.2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="G14" s="14">
         <v>0.6</v>
@@ -2017,22 +2842,22 @@
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="D15" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="G15" s="14">
         <v>0.5</v>
@@ -2040,22 +2865,22 @@
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="D16" s="14">
         <v>0.5</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G16" s="14">
         <v>0.8</v>
@@ -2063,22 +2888,22 @@
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="D17" s="13">
         <v>1E-4</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -2086,22 +2911,22 @@
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="D18" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
       <c r="G18" s="14">
         <v>0.6</v>
@@ -2109,22 +2934,22 @@
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="D19" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="G19" s="14">
         <v>0.8</v>
@@ -2132,22 +2957,22 @@
     </row>
     <row r="20" spans="1:7" ht="26" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="D20" s="33">
         <v>0.01</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="G20" s="14">
         <v>0.8</v>
@@ -2155,22 +2980,22 @@
     </row>
     <row r="21" spans="1:7" ht="26" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="D21" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="G21" s="14">
         <v>1</v>
@@ -2178,7 +3003,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2189,22 +3014,22 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="G23" s="14">
         <v>0.3</v>
@@ -2212,22 +3037,22 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="D24" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="G24" s="14">
         <v>0.5</v>
@@ -2235,22 +3060,22 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="D25" s="14">
         <v>0.01</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G25" s="14">
         <v>0.7</v>
@@ -2258,22 +3083,22 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D26" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G26" s="14">
         <v>0.6</v>
@@ -2281,22 +3106,22 @@
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="D27" s="14">
         <v>0.77</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="G27" s="14">
         <v>0.8</v>
@@ -2304,22 +3129,22 @@
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="D28" s="14">
         <v>0.05</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="G28" s="14">
         <v>0.6</v>
@@ -2327,22 +3152,22 @@
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="D29" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="G29" s="14">
         <v>1</v>
@@ -2350,22 +3175,22 @@
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="D30" s="13">
         <v>0.02</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="G30" s="14">
         <v>0.3</v>
@@ -2373,22 +3198,22 @@
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>266</v>
+        <v>13</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="D31" s="14">
         <v>0.6</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="G31" s="14">
         <v>7.0000000000000007E-2</v>
@@ -2396,22 +3221,22 @@
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D32" s="14">
         <v>0.5</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G32" s="14">
         <v>0.7</v>
@@ -2419,22 +3244,22 @@
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D33" s="13">
         <v>0.02</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="G33" s="14">
         <v>0.2</v>
@@ -2451,22 +3276,22 @@
     </row>
     <row r="35" spans="1:7" ht="27" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G35" s="14">
         <v>0.2</v>
@@ -2474,28 +3299,29 @@
     </row>
     <row r="36" spans="1:7" ht="38" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="G36" s="14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -2503,7 +3329,7 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="G7:G9"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2514,12 +3340,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14" thickTop="1">
+      <c r="A2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0.152</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26">
+      <c r="A3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26">
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26">
+      <c r="A11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2533,24 +3568,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
       <c r="A2" s="20" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="B2" s="24">
         <v>0.152</v>
@@ -2559,7 +3594,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="E2" s="21">
         <v>0.9</v>
@@ -2567,7 +3602,7 @@
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -2576,33 +3611,33 @@
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="E5" s="19">
         <v>6.0000000000000001E-3</v>
@@ -2610,33 +3645,33 @@
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="E7" s="19">
         <v>3.0000000000000001E-3</v>
@@ -2644,33 +3679,33 @@
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="E9" s="19">
         <v>2.9999999999999997E-4</v>
@@ -2678,40 +3713,41 @@
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="E11" s="19">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2722,7 +3758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C16"/>
@@ -2738,23 +3774,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2762,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>693</v>
@@ -2770,7 +3806,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>85.56</v>
@@ -2784,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="C10">
         <v>117</v>
@@ -2792,7 +3828,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C11">
         <v>14.44</v>
@@ -2800,10 +3836,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -2811,7 +3847,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2822,14 +3858,15 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
       <c r="C16" s="4">
         <v>0.42399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2840,12 +3877,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -2858,46 +3895,46 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2916,7 +3953,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="B5" s="3">
         <v>0.99664870000000005</v>
@@ -2937,7 +3974,7 @@
         <v>1.004915</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="J5" s="3">
         <v>0.99664870000000005</v>
@@ -2954,7 +3991,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="B6" s="3">
         <v>1.000894</v>
@@ -2975,7 +4012,7 @@
         <v>1.0066790000000001</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="J6" s="3">
         <v>1.000894</v>
@@ -2992,7 +4029,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="B7" s="3">
         <v>1.59127</v>
@@ -3013,7 +4050,7 @@
         <v>1.7233210000000001</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="J7" s="3">
         <v>1.59127</v>
@@ -3030,7 +4067,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B8" s="3">
         <v>7.2156000000000002</v>
@@ -3051,7 +4088,7 @@
         <v>9.8052519999999994</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="J8" s="3">
         <v>7.2156000000000002</v>
@@ -3082,7 +4119,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3091,7 +4128,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3100,7 +4137,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3">
         <v>1.5041310000000001</v>
@@ -3121,7 +4158,7 @@
         <v>2.4499439999999999</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="J11" s="3">
         <v>1.5041310000000001</v>
@@ -3138,7 +4175,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B12" s="3">
         <v>1.183298</v>
@@ -3159,7 +4196,7 @@
         <v>1.8988700000000001</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="J12" s="3">
         <v>1.183298</v>
@@ -3176,7 +4213,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3">
         <v>1.5754729999999999</v>
@@ -3197,7 +4234,7 @@
         <v>2.5581839999999998</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="J13" s="3">
         <v>1.5754729999999999</v>
@@ -3214,7 +4251,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3">
         <v>1.4919450000000001</v>
@@ -3235,7 +4272,7 @@
         <v>2.4153950000000002</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="J14" s="3">
         <v>1.4919450000000001</v>
@@ -3252,7 +4289,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3">
         <v>1.9040029999999999</v>
@@ -3273,7 +4310,7 @@
         <v>3.1484679999999998</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="J15" s="3">
         <v>1.9040029999999999</v>
@@ -3290,7 +4327,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3">
         <v>1.127912</v>
@@ -3311,7 +4348,7 @@
         <v>1.792835</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="J16" s="3">
         <v>1.127912</v>
@@ -3342,7 +4379,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="B18" s="3">
         <v>1.0259119999999999</v>
@@ -3363,7 +4400,7 @@
         <v>1.042926</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="J18" s="3">
         <v>1.0259119999999999</v>
@@ -3380,7 +4417,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="B19" s="3">
         <v>1.7799700000000001</v>
@@ -3401,7 +4438,7 @@
         <v>2.9036029999999999</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="J19" s="3">
         <v>1.7799700000000001</v>
@@ -3418,7 +4455,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="B20" s="3">
         <v>0.97763770000000005</v>
@@ -3439,7 +4476,7 @@
         <v>1.5348759999999999</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="J20" s="3">
         <v>0.97763770000000005</v>
@@ -3456,7 +4493,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3">
         <v>1.537355</v>
@@ -3477,7 +4514,7 @@
         <v>3.3604889999999998</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="J21" s="3">
         <v>1.537355</v>
@@ -3494,7 +4531,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="B22" s="3">
         <v>0.36014439999999998</v>
@@ -3515,7 +4552,7 @@
         <v>0.67574730000000005</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="J22" s="3">
         <v>0.36014439999999998</v>
@@ -3532,7 +4569,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B23" s="3">
         <v>0.78372209999999998</v>
@@ -3553,7 +4590,7 @@
         <v>1.2588999999999999</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="J23" s="3">
         <v>0.78372209999999998</v>
@@ -3570,7 +4607,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3">
         <v>0.95840420000000004</v>
@@ -3591,7 +4628,7 @@
         <v>1.687519</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="J24" s="3">
         <v>0.95840420000000004</v>
@@ -3608,7 +4645,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3">
         <v>1.382242</v>
@@ -3629,7 +4666,7 @@
         <v>2.1892309999999999</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="J25" s="3">
         <v>1.382242</v>
@@ -3646,7 +4683,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3">
         <v>1.1597500000000001</v>
@@ -3667,7 +4704,7 @@
         <v>1.712845</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="J26" s="3">
         <v>1.1597500000000001</v>
@@ -3684,7 +4721,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B27" s="3">
         <v>1.016337</v>
@@ -3705,7 +4742,7 @@
         <v>1.384552</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="J27" s="3">
         <v>1.016337</v>
@@ -3722,7 +4759,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3">
         <v>1.007226</v>
@@ -3743,7 +4780,7 @@
         <v>1.0146219999999999</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="J28" s="3">
         <v>1.007226</v>
@@ -3760,7 +4797,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3">
         <v>1.0063120000000001</v>
@@ -3781,7 +4818,7 @@
         <v>1.0138450000000001</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="J29" s="3">
         <v>1.0063120000000001</v>
@@ -3798,7 +4835,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3">
         <v>0.97394990000000004</v>
@@ -3819,7 +4856,7 @@
         <v>1.001387</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="J30" s="3">
         <v>0.97394990000000004</v>
@@ -3836,7 +4873,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B31" s="3">
         <v>1.0002230000000001</v>
@@ -3857,7 +4894,7 @@
         <v>1.0289280000000001</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="J31" s="3">
         <v>1.0002230000000001</v>
@@ -3874,7 +4911,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B32" s="3">
         <v>1.032224</v>
@@ -3895,7 +4932,7 @@
         <v>1.0558650000000001</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="J32" s="3">
         <v>1.032224</v>
@@ -3912,7 +4949,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3">
         <v>0.95359110000000002</v>
@@ -3933,7 +4970,7 @@
         <v>1.0239929999999999</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="J33" s="3">
         <v>0.95359110000000002</v>
@@ -3950,7 +4987,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3">
         <v>0.99973749999999995</v>
@@ -3971,7 +5008,7 @@
         <v>1.001209</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="J34" s="3">
         <v>0.99973749999999995</v>
@@ -3988,7 +5025,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3">
         <v>0.92980370000000001</v>
@@ -4009,7 +5046,7 @@
         <v>0.9690512</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="J35" s="3">
         <v>0.92980370000000001</v>
@@ -4026,7 +5063,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B36" s="3">
         <v>1.0222789999999999</v>
@@ -4047,7 +5084,7 @@
         <v>1.211368</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="J36" s="3">
         <v>1.0222789999999999</v>
@@ -4064,7 +5101,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B37" s="3">
         <v>1.023301</v>
@@ -4085,7 +5122,7 @@
         <v>1.058127</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="J37" s="3">
         <v>1.023301</v>
@@ -4102,7 +5139,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B38" s="3">
         <v>1.055034</v>
@@ -4123,7 +5160,7 @@
         <v>1.0932200000000001</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="J38" s="3">
         <v>1.055034</v>
@@ -4140,7 +5177,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3">
         <v>1.005822</v>
@@ -4161,7 +5198,7 @@
         <v>1.018823</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="J39" s="3">
         <v>1.005822</v>
@@ -4178,7 +5215,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B40" s="3">
         <v>0.76309660000000001</v>
@@ -4199,7 +5236,7 @@
         <v>0.91475450000000003</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="J40" s="3">
         <v>0.76309660000000001</v>
@@ -4216,7 +5253,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B41" s="3">
         <v>1.0007079999999999</v>
@@ -4237,7 +5274,7 @@
         <v>1.001633</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="J41" s="3">
         <v>1.0007079999999999</v>
@@ -4254,7 +5291,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3">
         <v>0.99573080000000003</v>
@@ -4275,7 +5312,7 @@
         <v>1.0071490000000001</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="J42" s="3">
         <v>0.99573080000000003</v>
@@ -4292,18 +5329,17 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4312,7 +5348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A3:D7"/>
@@ -4328,58 +5364,58 @@
   <sheetData>
     <row r="3" spans="1:4" ht="27" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" thickTop="1">
       <c r="A4" s="20" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="B4" s="29">
         <v>0.72</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39">
       <c r="A5" s="15" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="B5" s="31">
         <v>0.71</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="B6" s="31">
         <v>0.74</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4389,7 +5425,7 @@
       <c r="D7" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4400,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
@@ -4411,7 +5447,90 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A3:F6"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1.383513</v>
+      </c>
+      <c r="C5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.79009160000000001</v>
+      </c>
+      <c r="F5">
+        <v>2.4226420000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0.1566488</v>
+      </c>
+      <c r="C6">
+        <v>-12.31</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.11662160000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.2104143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Figures_Tables/result_tables/tables.xlsx
+++ b/Figures_Tables/result_tables/tables.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1_apr15" sheetId="8" r:id="rId1"/>
-    <sheet name="Table 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Table 2_apr15" sheetId="9" r:id="rId3"/>
-    <sheet name="Table 2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sensitivity study" sheetId="3" r:id="rId5"/>
-    <sheet name="Ps model" sheetId="4" r:id="rId6"/>
-    <sheet name="Competing risk" sheetId="5" r:id="rId7"/>
-    <sheet name="MV_indication_comparison" sheetId="6" r:id="rId8"/>
+    <sheet name="Table 1_appendix" sheetId="10" r:id="rId1"/>
+    <sheet name="Table 1_apr15" sheetId="8" r:id="rId2"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Table 2_apr15" sheetId="9" r:id="rId4"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sensitivity study" sheetId="3" r:id="rId6"/>
+    <sheet name="Ps model" sheetId="4" r:id="rId7"/>
+    <sheet name="Competing risk" sheetId="5" r:id="rId8"/>
     <sheet name="Aline_Duration" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
@@ -27,1108 +27,1271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="337">
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>SVO2</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Phosphate</t>
+  </si>
+  <si>
+    <t>Bilirubin</t>
+  </si>
+  <si>
+    <t>Albumin</t>
+  </si>
+  <si>
+    <t>Troponin_T</t>
+  </si>
+  <si>
+    <t>Lactate</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Asian - Asian Indian</t>
+  </si>
+  <si>
+    <t>Black/African American</t>
+  </si>
+  <si>
+    <t>Hispanic Or Latino</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino - Dominican</t>
+  </si>
+  <si>
+    <t>Hispanic/Latino - Guatemalan</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>South American</t>
+  </si>
+  <si>
+    <t>Unable To Obtain</t>
+  </si>
+  <si>
+    <t>Unknown/Not Specified</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>9 (2.69%)</t>
+  </si>
+  <si>
+    <t>1 (0.3%)</t>
+  </si>
+  <si>
+    <t>28 (8.36%)</t>
+  </si>
+  <si>
+    <t>12 (3.58%)</t>
+  </si>
+  <si>
+    <t>6 (1.79%)</t>
+  </si>
+  <si>
+    <t>41 (12.24%)</t>
+  </si>
+  <si>
+    <t>234 (69.85%)</t>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>12.6 (11~14.1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.7 (11~14.1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 (190~304)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>237 (177~294)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (100~107)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (101~108)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.2)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV during ICU stay</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALINE_FLG</t>
+  </si>
+  <si>
+    <t>DAY_28_FLG</t>
+  </si>
+  <si>
+    <t>0          1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>100.00     100.00</t>
+  </si>
+  <si>
+    <t>Fisher's exact =</t>
+  </si>
+  <si>
+    <t>344 (43.5%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (4.8%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.4%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>67 (20%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 (20.3%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (4.2%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (7.1%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>147 (18.6%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>aline_flg</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P&gt;z</t>
+  </si>
+  <si>
+    <t>[95% Conf.</t>
+  </si>
+  <si>
+    <t>Interval]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>weight_first</t>
+  </si>
+  <si>
+    <t>sofa_first</t>
+  </si>
+  <si>
+    <t>hour_icu_intime</t>
+  </si>
+  <si>
+    <t>1.chf_flg</t>
+  </si>
+  <si>
+    <t>1.afib_flg</t>
+  </si>
+  <si>
+    <t>28 day mortality</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta Coefficients</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inter group comparison</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethnic group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admission Hour</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admission Day of the Week</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPO2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>LDH</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>BNP</t>
+  </si>
+  <si>
+    <t>Platelet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>206 (96~375)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 (108~337)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>180 (104~340)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>187 (106~300)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>42 (37~50)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 (36~48)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.5 (37~47)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNR at Admission</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 (8.2%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (4%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 (5.8%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 (3.5%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 (5.2%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>95 (9.7%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 (10.4%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entire Cohort (1776)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA Score</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~6)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (5~8)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~7)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (4~7)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Unit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switched to DNR and CMO (redo)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~46.5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day-of-ICU-Adm (Sunday as ref.)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour-of-ICU-Admission</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Liver Disease</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stroke</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maligant Cancer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Respiratory Disease</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPO2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelet </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Blood Cell</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chloride</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creatinine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCO2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age (yr.)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (+/-1.4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7 (+/-3.1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 (+/-2.2)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 (+/-5.3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 (+/-4.8)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 (+/-7.5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 (+/-4.5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.6 (+/-7)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 (+/-2.6)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (+/-1.6)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 (+/-5.3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-0.8)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 (+/-1.4)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1564 (+/-1459)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1758 (+/-1852)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>406 (41.3%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>694 (70.5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 (10.1%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>984 (55.4%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from ICU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>792 (44.6%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from Hospital</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extubation</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61~0.86</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6~0.84</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63~0.87</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.28 (-1.44~-1.11)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.12 (-0.27~-0.04)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary Outcomes</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 day mortality</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 (0.62~1.46)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.renal_flg</t>
+  </si>
+  <si>
+    <t>1.liver_flg</t>
+  </si>
+  <si>
+    <t>1.copd_flg</t>
+  </si>
+  <si>
+    <t>1.cad_flg</t>
+  </si>
+  <si>
+    <t>1.stroke_flg</t>
+  </si>
+  <si>
+    <t>1.mal_flg</t>
+  </si>
+  <si>
+    <t>1.resp_flg</t>
+  </si>
+  <si>
+    <t>map_1st</t>
+  </si>
+  <si>
+    <t>hr_1st</t>
+  </si>
+  <si>
+    <t>spo2_1st</t>
+  </si>
+  <si>
+    <t>temp_1st</t>
+  </si>
+  <si>
+    <t>wbc_first</t>
+  </si>
+  <si>
+    <t>hgb_first</t>
+  </si>
+  <si>
+    <t>platelet_first</t>
+  </si>
+  <si>
+    <t>sodium_first</t>
+  </si>
+  <si>
+    <t>potassium_first</t>
+  </si>
+  <si>
+    <t>tco2_first</t>
+  </si>
+  <si>
+    <t>chloride_first</t>
+  </si>
+  <si>
+    <t>bun_first</t>
+  </si>
+  <si>
+    <t>creatinine_first</t>
+  </si>
+  <si>
+    <t>po2_first</t>
+  </si>
+  <si>
+    <t>pco2_first</t>
+  </si>
+  <si>
+    <t>PS model</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1491</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_icu_admission</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU (ref) vs CSRU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thur</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUROC: 0.81</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL: p=0.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>342        351</t>
+  </si>
+  <si>
+    <t>84.44      86.67</t>
+  </si>
+  <si>
+    <t>63         54</t>
+  </si>
+  <si>
+    <t>15.56      13.33</t>
+  </si>
+  <si>
+    <t>405        405</t>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malignance</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Respotary Disease </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
   <si>
     <t>Non-IAC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IAC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Effect Size (95% CI)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>p-value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Primary Outcome</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ICU LOS
 (non-surviors)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Hospital LOS
 (non-surviors)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Ventilation time
 (non-surviors)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Secondary Outcome</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Subhazard Ratio</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>95% CI</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Chloride</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BUN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Creatinine</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PO2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PCO2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-0.66 (-0.82~-0.5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-0.33 (-0.88~0.22)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-0.57 (-0.74~-0.41)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-0.37 (-0.82~0.07)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Ventilation time (surviors)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Blood gas test count (per day)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Total IV fluid volumn (1st day)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ICU LOS (surviors)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Hospital LOS (surviors)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-0.54 (-0.7~-0.38)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>-0.78 (-1.36~-0.2)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>COPD</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>CAD</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Stroke</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_28_flg</t>
-  </si>
-  <si>
-    <t>aline_duration</t>
-  </si>
-  <si>
-    <t>_cons</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0.96 (0.62~1.47)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SICU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>288 (26.4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>164 (47.1%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>156 (44.8%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Co-morbidities</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>97 (12.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>116 (11.8%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>44 (12.6%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>36 (10.3%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>82 (10.4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>125 (12.7%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>32 (9.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>28 (3.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>32 (3.3%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>13 (3.8%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>10 (2.9%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>28 (4.8%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>61 (6.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>14 (4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>18 (5.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>81 (10.23%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>76 (7.72%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>39 (11.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>51 (6.4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>72 (7.32%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>23 (6.6%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>21 (6%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>70 (8.8%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>152 (15.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>33 (9.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>92 (11.6%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>164 (16.7%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>51 (14.7%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>278 (35.1%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>287 (29.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>121 (34.7%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>125 (35.9%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Matched Cohort (696)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Non-IAC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IAC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>p-value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>lab tests</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age (yr.)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disease</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 (+/-1.4)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.7 (+/-3.1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6 (+/-2.2)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2 (+/-5.3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7 (+/-4.8)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4 (+/-7.5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4 (+/-4.5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.6 (+/-7)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (+/-1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 (+/-2.6)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (+/-1.6)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3 (+/-5.3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (+/-0.8)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4 (+/-1.4)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1564 (+/-1459)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1758 (+/-1852)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>406 (41.3%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>694 (70.5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>34 (10.1%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>984 (55.4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge from ICU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>792 (44.6%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge from Hospital</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extubation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.61~0.86</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6~0.84</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.63~0.87</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.28 (-1.44~-1.11)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.12 (-0.27~-0.04)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Secondary Outcomes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 day mortality</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 (0.62~1.46)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.renal_flg</t>
-  </si>
-  <si>
-    <t>1.liver_flg</t>
-  </si>
-  <si>
-    <t>1.copd_flg</t>
-  </si>
-  <si>
-    <t>1.cad_flg</t>
-  </si>
-  <si>
-    <t>1.stroke_flg</t>
-  </si>
-  <si>
-    <t>1.mal_flg</t>
-  </si>
-  <si>
-    <t>1.resp_flg</t>
-  </si>
-  <si>
-    <t>map_1st</t>
-  </si>
-  <si>
-    <t>hr_1st</t>
-  </si>
-  <si>
-    <t>spo2_1st</t>
-  </si>
-  <si>
-    <t>temp_1st</t>
-  </si>
-  <si>
-    <t>wbc_first</t>
-  </si>
-  <si>
-    <t>hgb_first</t>
-  </si>
-  <si>
-    <t>platelet_first</t>
-  </si>
-  <si>
-    <t>sodium_first</t>
-  </si>
-  <si>
-    <t>potassium_first</t>
-  </si>
-  <si>
-    <t>tco2_first</t>
-  </si>
-  <si>
-    <t>chloride_first</t>
-  </si>
-  <si>
-    <t>bun_first</t>
-  </si>
-  <si>
-    <t>creatinine_first</t>
-  </si>
-  <si>
-    <t>po2_first</t>
-  </si>
-  <si>
-    <t>pco2_first</t>
-  </si>
-  <si>
-    <t>PS model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=1491</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_icu_admission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU (ref) vs CSRU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thur</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUROC: 0.81</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL: p=0.4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.8 (11.2 ~14.2)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.7 (8~14.8)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5 (8.4~14.7)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>342        351</t>
-  </si>
-  <si>
-    <t>84.44      86.67</t>
-  </si>
-  <si>
-    <t>63         54</t>
-  </si>
-  <si>
-    <t>15.56      13.33</t>
-  </si>
-  <si>
-    <t>405        405</t>
-  </si>
-  <si>
-    <t>140 (138~143)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>140 (137~142)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (184~303)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Malignance</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Respotary Disease </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hemoglobin</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Platelet</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potassium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>206 (96~375)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 (108~337)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>180 (104~340)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>187 (106~300)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>42 (37~50)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 (36~48)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.5 (37~47)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNR at Admission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>65 (8.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>39 (4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 (5.8%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 (3.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 (5.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>95 (9.7%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 (10.4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entire Cohort (1776)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variables</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA Score</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARDS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal Disease</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender (Female)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>205 (58.9%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~6)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (5~8)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~7)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (4~7)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Unit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>504 (63.6%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>290 (29.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>184 (52.9%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (186~289)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (22~27)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (21~27)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.6~4.5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.7~4.4)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~22)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switched to DNR and CMO (redo)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 (35~46.5)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day-of-ICU-Adm (Sunday as ref.)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hour-of-ICU-Admission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chronic Liver Disease</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPD</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stroke</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maligant Cancer</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chronic Respiratory Disease</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mean Arterial Pressure</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart Rate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPO2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hemoglobin</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelet </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Blood Cell</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potassium</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chloride</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creatinine</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCO2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.6 (7.8~14.3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.8 (8.5~15.9)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (11.3~14.4)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.6 (11~14.1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.7 (11~14.1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>246 (190~304)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>237 (177~294)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (100~107)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>104 (101~108)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~21)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (12~22)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.1)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9 (0.7~1.2)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV during ICU stay</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALINE_FLG</t>
-  </si>
-  <si>
-    <t>DAY_28_FLG</t>
-  </si>
-  <si>
-    <t>0          1</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>100.00     100.00</t>
-  </si>
-  <si>
-    <t>Fisher's exact =</t>
-  </si>
-  <si>
-    <t>344 (43.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (4.8%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.4%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>67 (20%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>68 (20.3%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (4.2%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (7.1%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>147 (18.6%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>348 (50%)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (35~72)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>56 (40~73)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>53  (35~72)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>54 (38~73)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>aline_flg</t>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
-  </si>
-  <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>P&gt;z</t>
-  </si>
-  <si>
-    <t>[95% Conf.</t>
-  </si>
-  <si>
-    <t>Interval]</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>weight_first</t>
-  </si>
-  <si>
-    <t>sofa_first</t>
-  </si>
-  <si>
-    <t>hour_icu_intime</t>
-  </si>
-  <si>
-    <t>1.chf_flg</t>
-  </si>
-  <si>
-    <t>1.afib_flg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1140,10 +1303,15 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -1183,6 +1351,10 @@
       <b/>
       <sz val="9"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1285,112 +1457,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1399,16 +1575,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,9 +1919,1061 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.42578125" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="13.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" ht="25" thickBot="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13" thickTop="1">
+      <c r="A3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="35">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="48"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="35">
+        <v>1E-4</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" s="35">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="35">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13" customHeight="1">
+      <c r="A53" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13" customHeight="1">
+      <c r="A54" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13" customHeight="1">
+      <c r="A55" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13" customHeight="1">
+      <c r="A56" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13" customHeight="1">
+      <c r="A57" s="48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13" customHeight="1">
+      <c r="A58" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13" customHeight="1">
+      <c r="A59" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13" customHeight="1">
+      <c r="A60" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13" customHeight="1">
+      <c r="A61" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13" customHeight="1">
+      <c r="A62" s="48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13" customHeight="1">
+      <c r="A63" s="48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13" customHeight="1">
+      <c r="A64" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13" customHeight="1">
+      <c r="A65" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13" customHeight="1">
+      <c r="A66" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13" customHeight="1">
+      <c r="A67" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13" customHeight="1">
+      <c r="A68" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="14">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="14">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="9"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="9"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="9"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="13">
+      <c r="A84" s="48"/>
+    </row>
+    <row r="85" spans="1:1" ht="13">
+      <c r="A85" s="48"/>
+    </row>
+    <row r="86" spans="1:1" ht="13">
+      <c r="A86" s="48"/>
+    </row>
+    <row r="87" spans="1:1" ht="13">
+      <c r="A87" s="48"/>
+    </row>
+    <row r="88" spans="1:1" ht="13">
+      <c r="A88" s="48"/>
+    </row>
+    <row r="89" spans="1:1" ht="13">
+      <c r="A89" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="G22:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A32" zoomScale="150" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1757,103 +2989,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>74</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" thickTop="1">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="D4" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="A5" s="8" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="D5" s="14">
         <v>0.36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="G5" s="14">
         <v>0.59</v>
@@ -1861,22 +3093,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="G6" s="14">
         <v>0.3</v>
@@ -1884,58 +3116,58 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="38" t="s">
-        <v>183</v>
+      <c r="D7" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="41"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="39"/>
+        <v>135</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="14" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="42"/>
+        <v>126</v>
+      </c>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="40"/>
+        <v>198</v>
+      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="14" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="43"/>
+        <v>298</v>
+      </c>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="A10" s="8" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1946,22 +3178,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="D11" s="14">
         <v>0.7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="G11" s="14">
         <v>0.63</v>
@@ -1969,22 +3201,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="D12" s="14">
         <v>0.1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -1992,22 +3224,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="D13" s="14">
         <v>0.8</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -2015,22 +3247,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="D14" s="14">
         <v>0.2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>53</v>
+        <v>314</v>
       </c>
       <c r="G14" s="14">
         <v>0.72</v>
@@ -2038,22 +3270,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="D15" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="G15" s="14">
         <v>0.8</v>
@@ -2061,22 +3293,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="D16" s="14">
         <v>0.5</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="G16" s="14">
         <v>0.2</v>
@@ -2084,22 +3316,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="D17" s="34">
         <v>1E-4</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="G17" s="14">
         <v>0.9</v>
@@ -2107,22 +3339,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>64</v>
+        <v>325</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="D18" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="G18" s="14">
         <v>0.43</v>
@@ -2130,22 +3362,22 @@
     </row>
     <row r="19" spans="1:7" ht="24">
       <c r="A19" s="9" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="D19" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="G19" s="14">
         <v>0.52</v>
@@ -2153,22 +3385,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="D20" s="34">
         <v>0.01</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="G20" s="14">
         <v>0.72</v>
@@ -2176,22 +3408,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="D21" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="G21" s="14">
         <v>0.92</v>
@@ -2199,7 +3431,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2210,22 +3442,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="G23" s="14">
         <v>0.26</v>
@@ -2233,22 +3465,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="D24" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="G24" s="14">
         <v>0.54</v>
@@ -2256,22 +3488,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="D25" s="14">
         <v>0.01</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="G25" s="14">
         <v>0.47</v>
@@ -2279,22 +3511,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="D26" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="G26" s="14">
         <v>0.56000000000000005</v>
@@ -2302,22 +3534,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="D27" s="14">
         <v>0.77</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="G27" s="14">
         <v>0.86</v>
@@ -2325,22 +3557,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="D28" s="14">
         <v>0.05</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="G28" s="14">
         <v>0.34</v>
@@ -2348,22 +3580,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="D29" s="34">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="G29" s="14">
         <v>0.3</v>
@@ -2371,22 +3603,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="D30" s="34">
         <v>0.02</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="G30" s="14">
         <v>0.57999999999999996</v>
@@ -2394,22 +3626,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="D31" s="14">
         <v>0.6</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="G31" s="14">
         <v>0.2</v>
@@ -2417,22 +3649,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="D32" s="14">
         <v>0.5</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="G32" s="14">
         <v>0.76</v>
@@ -2440,22 +3672,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="D33" s="34">
         <v>0.02</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="G33" s="14">
         <v>0.78</v>
@@ -2472,22 +3704,22 @@
     </row>
     <row r="35" spans="1:7" ht="24">
       <c r="A35" s="9" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="G35" s="14">
         <v>0.59</v>
@@ -2495,29 +3727,28 @@
     </row>
     <row r="36" spans="1:7" ht="36">
       <c r="A36" s="9" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="G36" s="14">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
@@ -2525,7 +3756,7 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="G7:G9"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2536,7 +3767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G36"/>
@@ -2557,82 +3788,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="37"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>74</v>
+        <v>335</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>74</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickTop="1">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>269</v>
+        <v>62</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="D4" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="G4" s="14">
         <v>0.4</v>
@@ -2640,22 +3871,22 @@
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="D5" s="14">
         <v>0.36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="G5" s="14">
         <v>0.36</v>
@@ -2663,22 +3894,22 @@
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="G6" s="14">
         <v>0.6</v>
@@ -2686,60 +3917,60 @@
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="38" t="s">
-        <v>193</v>
+      <c r="D7" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="41">
+      <c r="G7" s="43">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="39"/>
+        <v>135</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="14" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="42"/>
+        <v>137</v>
+      </c>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="40"/>
+        <v>198</v>
+      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="14" t="s">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="43"/>
+        <v>298</v>
+      </c>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2750,22 +3981,22 @@
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="D11" s="14">
         <v>0.7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="G11" s="14">
         <v>0.4</v>
@@ -2773,22 +4004,22 @@
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="D12" s="14">
         <v>0.1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="G12" s="14">
         <v>0.7</v>
@@ -2796,22 +4027,22 @@
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="D13" s="14">
         <v>0.8</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>48</v>
+        <v>309</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="G13" s="14">
         <v>0.7</v>
@@ -2819,22 +4050,22 @@
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="D14" s="14">
         <v>0.2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>53</v>
+        <v>314</v>
       </c>
       <c r="G14" s="14">
         <v>0.6</v>
@@ -2842,22 +4073,22 @@
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="D15" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="G15" s="14">
         <v>0.5</v>
@@ -2865,22 +4096,22 @@
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>57</v>
+        <v>318</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="D16" s="14">
         <v>0.5</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="G16" s="14">
         <v>0.8</v>
@@ -2888,22 +4119,22 @@
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>62</v>
+        <v>323</v>
       </c>
       <c r="D17" s="13">
         <v>1E-4</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -2911,22 +4142,22 @@
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>64</v>
+        <v>325</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="D18" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="G18" s="14">
         <v>0.6</v>
@@ -2934,22 +4165,22 @@
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="D19" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="G19" s="14">
         <v>0.8</v>
@@ -2957,22 +4188,22 @@
     </row>
     <row r="20" spans="1:7" ht="26" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="D20" s="33">
         <v>0.01</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="G20" s="14">
         <v>0.8</v>
@@ -2980,22 +4211,22 @@
     </row>
     <row r="21" spans="1:7" ht="26" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="D21" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="G21" s="14">
         <v>1</v>
@@ -3003,7 +4234,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3014,22 +4245,22 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="G23" s="14">
         <v>0.3</v>
@@ -3037,22 +4268,22 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="D24" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="G24" s="14">
         <v>0.5</v>
@@ -3060,22 +4291,22 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="D25" s="14">
         <v>0.01</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="G25" s="14">
         <v>0.7</v>
@@ -3083,22 +4314,22 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="D26" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="G26" s="14">
         <v>0.6</v>
@@ -3106,22 +4337,22 @@
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="D27" s="14">
         <v>0.77</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="G27" s="14">
         <v>0.8</v>
@@ -3129,22 +4360,22 @@
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="D28" s="14">
         <v>0.05</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="G28" s="14">
         <v>0.6</v>
@@ -3152,22 +4383,22 @@
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="D29" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="G29" s="14">
         <v>1</v>
@@ -3175,22 +4406,22 @@
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="D30" s="13">
         <v>0.02</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="G30" s="14">
         <v>0.3</v>
@@ -3198,22 +4429,22 @@
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="D31" s="14">
         <v>0.6</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="G31" s="14">
         <v>7.0000000000000007E-2</v>
@@ -3221,22 +4452,22 @@
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="D32" s="14">
         <v>0.5</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="G32" s="14">
         <v>0.7</v>
@@ -3244,22 +4475,22 @@
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="D33" s="13">
         <v>0.02</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="G33" s="14">
         <v>0.2</v>
@@ -3276,22 +4507,22 @@
     </row>
     <row r="35" spans="1:7" ht="27" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="G35" s="14">
         <v>0.2</v>
@@ -3299,29 +4530,28 @@
     </row>
     <row r="36" spans="1:7" ht="38" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="G36" s="14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
@@ -3329,7 +4559,7 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="G7:G9"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3340,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E11"/>
@@ -3359,24 +4589,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>74</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" thickTop="1">
       <c r="A2" s="20" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="B2" s="24">
         <v>0.152</v>
@@ -3385,7 +4615,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="E2" s="21">
         <v>0.83</v>
@@ -3393,7 +4623,7 @@
     </row>
     <row r="3" spans="1:5" ht="26">
       <c r="A3" s="16" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -3402,33 +4632,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26">
       <c r="A5" s="17" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="E5" s="19">
         <v>6.0000000000000001E-3</v>
@@ -3436,33 +4666,33 @@
     </row>
     <row r="6" spans="1:5" ht="26">
       <c r="A6" s="17" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26">
       <c r="A7" s="17" t="s">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E7" s="19">
         <v>3.0000000000000001E-3</v>
@@ -3470,33 +4700,33 @@
     </row>
     <row r="8" spans="1:5" ht="26">
       <c r="A8" s="17" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26">
       <c r="A9" s="17" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="E9" s="19">
         <v>2.9999999999999997E-4</v>
@@ -3504,41 +4734,40 @@
     </row>
     <row r="10" spans="1:5" ht="26">
       <c r="A10" s="17" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26">
       <c r="A11" s="17" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="E11" s="19">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3549,14 +4778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3568,24 +4795,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
       <c r="A2" s="20" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="B2" s="24">
         <v>0.152</v>
@@ -3594,7 +4821,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="E2" s="21">
         <v>0.9</v>
@@ -3602,7 +4829,7 @@
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -3611,33 +4838,33 @@
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>17</v>
+        <v>281</v>
       </c>
       <c r="E5" s="19">
         <v>6.0000000000000001E-3</v>
@@ -3645,33 +4872,33 @@
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="E7" s="19">
         <v>3.0000000000000001E-3</v>
@@ -3679,33 +4906,33 @@
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="E9" s="19">
         <v>2.9999999999999997E-4</v>
@@ -3713,41 +4940,40 @@
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="E11" s="19">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3758,7 +4984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C16"/>
@@ -3774,23 +5000,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>253</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3798,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="C7">
         <v>693</v>
@@ -3806,7 +5032,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="C8">
         <v>85.56</v>
@@ -3820,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="C10">
         <v>117</v>
@@ -3828,7 +5054,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="C11">
         <v>14.44</v>
@@ -3836,10 +5062,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>256</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -3847,7 +5073,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -3858,15 +5084,14 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4">
         <v>0.42399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3877,12 +5102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -3895,46 +5120,46 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>278</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3953,7 +5178,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3">
         <v>0.99664870000000005</v>
@@ -3974,7 +5199,7 @@
         <v>1.004915</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="J5" s="3">
         <v>0.99664870000000005</v>
@@ -3991,7 +5216,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3">
         <v>1.000894</v>
@@ -4012,7 +5237,7 @@
         <v>1.0066790000000001</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="J6" s="3">
         <v>1.000894</v>
@@ -4029,7 +5254,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3">
         <v>1.59127</v>
@@ -4050,7 +5275,7 @@
         <v>1.7233210000000001</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="J7" s="3">
         <v>1.59127</v>
@@ -4067,7 +5292,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="B8" s="3">
         <v>7.2156000000000002</v>
@@ -4088,7 +5313,7 @@
         <v>9.8052519999999994</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="J8" s="3">
         <v>7.2156000000000002</v>
@@ -4119,7 +5344,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4128,7 +5353,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -4137,7 +5362,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="B11" s="3">
         <v>1.5041310000000001</v>
@@ -4158,7 +5383,7 @@
         <v>2.4499439999999999</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="J11" s="3">
         <v>1.5041310000000001</v>
@@ -4175,7 +5400,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B12" s="3">
         <v>1.183298</v>
@@ -4196,7 +5421,7 @@
         <v>1.8988700000000001</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="J12" s="3">
         <v>1.183298</v>
@@ -4213,7 +5438,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="B13" s="3">
         <v>1.5754729999999999</v>
@@ -4234,7 +5459,7 @@
         <v>2.5581839999999998</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="J13" s="3">
         <v>1.5754729999999999</v>
@@ -4251,7 +5476,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="B14" s="3">
         <v>1.4919450000000001</v>
@@ -4272,7 +5497,7 @@
         <v>2.4153950000000002</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="J14" s="3">
         <v>1.4919450000000001</v>
@@ -4289,7 +5514,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="B15" s="3">
         <v>1.9040029999999999</v>
@@ -4310,7 +5535,7 @@
         <v>3.1484679999999998</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="J15" s="3">
         <v>1.9040029999999999</v>
@@ -4327,7 +5552,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="B16" s="3">
         <v>1.127912</v>
@@ -4348,7 +5573,7 @@
         <v>1.792835</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="J16" s="3">
         <v>1.127912</v>
@@ -4379,7 +5604,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3">
         <v>1.0259119999999999</v>
@@ -4400,7 +5625,7 @@
         <v>1.042926</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="J18" s="3">
         <v>1.0259119999999999</v>
@@ -4417,7 +5642,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3">
         <v>1.7799700000000001</v>
@@ -4438,7 +5663,7 @@
         <v>2.9036029999999999</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="J19" s="3">
         <v>1.7799700000000001</v>
@@ -4455,7 +5680,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3">
         <v>0.97763770000000005</v>
@@ -4476,7 +5701,7 @@
         <v>1.5348759999999999</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="J20" s="3">
         <v>0.97763770000000005</v>
@@ -4493,7 +5718,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="B21" s="3">
         <v>1.537355</v>
@@ -4514,7 +5739,7 @@
         <v>3.3604889999999998</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="J21" s="3">
         <v>1.537355</v>
@@ -4531,7 +5756,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="B22" s="3">
         <v>0.36014439999999998</v>
@@ -4552,7 +5777,7 @@
         <v>0.67574730000000005</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="J22" s="3">
         <v>0.36014439999999998</v>
@@ -4569,7 +5794,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="B23" s="3">
         <v>0.78372209999999998</v>
@@ -4590,7 +5815,7 @@
         <v>1.2588999999999999</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="J23" s="3">
         <v>0.78372209999999998</v>
@@ -4607,7 +5832,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="B24" s="3">
         <v>0.95840420000000004</v>
@@ -4628,7 +5853,7 @@
         <v>1.687519</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="J24" s="3">
         <v>0.95840420000000004</v>
@@ -4645,7 +5870,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="B25" s="3">
         <v>1.382242</v>
@@ -4666,7 +5891,7 @@
         <v>2.1892309999999999</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="J25" s="3">
         <v>1.382242</v>
@@ -4683,7 +5908,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="B26" s="3">
         <v>1.1597500000000001</v>
@@ -4704,7 +5929,7 @@
         <v>1.712845</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="J26" s="3">
         <v>1.1597500000000001</v>
@@ -4721,7 +5946,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="B27" s="3">
         <v>1.016337</v>
@@ -4742,7 +5967,7 @@
         <v>1.384552</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="J27" s="3">
         <v>1.016337</v>
@@ -4759,7 +5984,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="B28" s="3">
         <v>1.007226</v>
@@ -4780,7 +6005,7 @@
         <v>1.0146219999999999</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="J28" s="3">
         <v>1.007226</v>
@@ -4797,7 +6022,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="B29" s="3">
         <v>1.0063120000000001</v>
@@ -4818,7 +6043,7 @@
         <v>1.0138450000000001</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J29" s="3">
         <v>1.0063120000000001</v>
@@ -4835,7 +6060,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="B30" s="3">
         <v>0.97394990000000004</v>
@@ -4856,7 +6081,7 @@
         <v>1.001387</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="J30" s="3">
         <v>0.97394990000000004</v>
@@ -4873,7 +6098,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="B31" s="3">
         <v>1.0002230000000001</v>
@@ -4894,7 +6119,7 @@
         <v>1.0289280000000001</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="J31" s="3">
         <v>1.0002230000000001</v>
@@ -4911,7 +6136,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="B32" s="3">
         <v>1.032224</v>
@@ -4932,7 +6157,7 @@
         <v>1.0558650000000001</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="J32" s="3">
         <v>1.032224</v>
@@ -4949,7 +6174,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="B33" s="3">
         <v>0.95359110000000002</v>
@@ -4970,7 +6195,7 @@
         <v>1.0239929999999999</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J33" s="3">
         <v>0.95359110000000002</v>
@@ -4987,7 +6212,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="B34" s="3">
         <v>0.99973749999999995</v>
@@ -5008,7 +6233,7 @@
         <v>1.001209</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="J34" s="3">
         <v>0.99973749999999995</v>
@@ -5025,7 +6250,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="B35" s="3">
         <v>0.92980370000000001</v>
@@ -5046,7 +6271,7 @@
         <v>0.9690512</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="J35" s="3">
         <v>0.92980370000000001</v>
@@ -5063,7 +6288,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="B36" s="3">
         <v>1.0222789999999999</v>
@@ -5084,7 +6309,7 @@
         <v>1.211368</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="J36" s="3">
         <v>1.0222789999999999</v>
@@ -5101,7 +6326,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="B37" s="3">
         <v>1.023301</v>
@@ -5122,7 +6347,7 @@
         <v>1.058127</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="J37" s="3">
         <v>1.023301</v>
@@ -5139,7 +6364,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="B38" s="3">
         <v>1.055034</v>
@@ -5160,7 +6385,7 @@
         <v>1.0932200000000001</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="J38" s="3">
         <v>1.055034</v>
@@ -5177,7 +6402,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="B39" s="3">
         <v>1.005822</v>
@@ -5198,7 +6423,7 @@
         <v>1.018823</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="J39" s="3">
         <v>1.005822</v>
@@ -5215,7 +6440,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="B40" s="3">
         <v>0.76309660000000001</v>
@@ -5236,7 +6461,7 @@
         <v>0.91475450000000003</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="J40" s="3">
         <v>0.76309660000000001</v>
@@ -5253,7 +6478,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="B41" s="3">
         <v>1.0007079999999999</v>
@@ -5274,7 +6499,7 @@
         <v>1.001633</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="J41" s="3">
         <v>1.0007079999999999</v>
@@ -5291,7 +6516,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="B42" s="3">
         <v>0.99573080000000003</v>
@@ -5312,7 +6537,7 @@
         <v>1.0071490000000001</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="J42" s="3">
         <v>0.99573080000000003</v>
@@ -5329,16 +6554,16 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -5348,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A3:D7"/>
@@ -5364,58 +6589,58 @@
   <sheetData>
     <row r="3" spans="1:4" ht="27" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>3</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" thickTop="1">
       <c r="A4" s="20" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="B4" s="29">
         <v>0.72</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39">
       <c r="A5" s="15" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B5" s="31">
         <v>0.71</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B6" s="31">
         <v>0.74</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5425,29 +6650,7 @@
       <c r="D7" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5461,76 +6664,188 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A3:F6"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView view="pageLayout" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>30</v>
+    <row r="1" spans="1:5" ht="14" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14" thickTop="1">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>1.383513</v>
+      </c>
+      <c r="C2">
+        <v>0.79009160000000001</v>
+      </c>
+      <c r="D2">
+        <v>2.4226420000000002</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26">
+      <c r="A3" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>31</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4">
+        <v>1.439619</v>
+      </c>
+      <c r="C4">
+        <v>0.90765700000000005</v>
+      </c>
+      <c r="D4">
+        <v>1.9715819999999999</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26">
+      <c r="A5" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="B5">
-        <v>1.383513</v>
+        <v>1.527272</v>
       </c>
       <c r="C5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D5" s="44">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.79009160000000001</v>
-      </c>
-      <c r="F5">
-        <v>2.4226420000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>32</v>
+        <v>-1.4457869999999999</v>
+      </c>
+      <c r="D5">
+        <v>4.5003310000000001</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26">
+      <c r="A6" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="B6">
-        <v>0.1566488</v>
+        <v>3.8500200000000002</v>
       </c>
       <c r="C6">
-        <v>-12.31</v>
+        <v>2.4434930000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.11662160000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.2104143</v>
-      </c>
+        <v>5.2565460000000002</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26">
+      <c r="A7" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7">
+        <v>1.402738</v>
+      </c>
+      <c r="C7">
+        <v>-1.8356399999999999</v>
+      </c>
+      <c r="D7">
+        <v>4.6411160000000002</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14" thickBot="1">
+      <c r="A13" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14" thickTop="1">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>10.83609</v>
+      </c>
+      <c r="C14">
+        <v>2.1167029999999998</v>
+      </c>
+      <c r="D14">
+        <v>55.47343</v>
+      </c>
+      <c r="E14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="17"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17"/>
+      <c r="E17" s="46"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17"/>
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="17"/>
+      <c r="E19" s="46"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Figures_Tables/result_tables/tables.xlsx
+++ b/Figures_Tables/result_tables/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15220" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1_appendix" sheetId="10" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Ps model" sheetId="4" r:id="rId7"/>
     <sheet name="Competing risk" sheetId="5" r:id="rId8"/>
     <sheet name="Aline_Duration" sheetId="7" r:id="rId9"/>
+    <sheet name="Result_with_GBM " sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -27,1283 +28,2227 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="337">
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>SVO2</t>
-  </si>
-  <si>
-    <t>Glucose</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Phosphate</t>
-  </si>
-  <si>
-    <t>Bilirubin</t>
-  </si>
-  <si>
-    <t>Albumin</t>
-  </si>
-  <si>
-    <t>Troponin_T</t>
-  </si>
-  <si>
-    <t>Lactate</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Asian - Asian Indian</t>
-  </si>
-  <si>
-    <t>Black/African American</t>
-  </si>
-  <si>
-    <t>Hispanic Or Latino</t>
-  </si>
-  <si>
-    <t>Hispanic/Latino - Dominican</t>
-  </si>
-  <si>
-    <t>Hispanic/Latino - Guatemalan</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>South American</t>
-  </si>
-  <si>
-    <t>Unable To Obtain</t>
-  </si>
-  <si>
-    <t>Unknown/Not Specified</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>9 (2.69%)</t>
-  </si>
-  <si>
-    <t>1 (0.3%)</t>
-  </si>
-  <si>
-    <t>28 (8.36%)</t>
-  </si>
-  <si>
-    <t>12 (3.58%)</t>
-  </si>
-  <si>
-    <t>6 (1.79%)</t>
-  </si>
-  <si>
-    <t>41 (12.24%)</t>
-  </si>
-  <si>
-    <t>234 (69.85%)</t>
-  </si>
-  <si>
-    <t>Monday</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="564">
+  <si>
+    <t>819 (83%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>95 (10%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>224 (23%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>83 (11%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>774 (79%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>269 (80%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>279 (83%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>259 (77%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 (14%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 (6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 (12%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>79 (23%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arterial Blood Gas test count (per day)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venous Blood Gas test count (per day)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-0.9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.42 (-1.62~-1.24)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>524 (66%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>55 (7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>554 (70%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admission Hour  (7am-7pm)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucose (mg/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDH (IU/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 (0.3~0.8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 (0.4~1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 (0.3~1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6 (0.3~0.9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilirubin (mg/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALP (IU/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albumin (g/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troponin_T (ng/mL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK (ng/mL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNP (pg/mL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lactate (mmol/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SVO2 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>206   (96~375)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO2 (mmHg)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCO2 (mmHg)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fentanyl</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midazolam</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Propofol</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sedative Medications</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dilaudid, Lorazepam</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexmedetomidine, Norepinephrine, Dopamine, Vasopressin, Phenylephrine, Epinephrine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 (60~106)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>77 (58~103)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 (59~108)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>74 (57~99)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 (3.2~4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 (2.8~3.7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 (3.1~3.9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 (2.9~3.8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.045 (0.02~0.11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05 (0.02~0.12)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05 (0.03~0.15)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04 (0.02~0.16)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (3~8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (3~9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3~8.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2269 (1076~6199)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2636 (1230~4228)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 (1.4~3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (1.4~3.2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (1.3~2.9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (1.5~3.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4 (7.3~7.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.37 (7.32~7.43)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.37 (7.3~7.42)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (59~90)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 (76~84)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 (108~337)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180 (104~340)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>187 (106~300)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>42 (37~50)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 (36~48)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.5 (37~47)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~46.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 (6~11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (6~13)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5 (6~12)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab tests</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemoglobin (g/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>12.6 (11~14.1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>12.7 (11~14.1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platelet (K/uL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>246 (190~304)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>237 (177~294)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium (mEq/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium (mEq/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicarbonate (mEq/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chloride (mEq/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>104 (100~107)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>104 (101~108)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUN (mg/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>15 (11~21)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>16 (12~22)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creatinine (mg/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0.9 (0.7~1.1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>0.9 (0.7~1.2)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MV during ICU stay</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALINE_FLG</t>
-  </si>
-  <si>
-    <t>DAY_28_FLG</t>
-  </si>
-  <si>
-    <t>0          1</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>100.00     100.00</t>
-  </si>
-  <si>
-    <t>Fisher's exact =</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>126 (105~161)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>136 (111~171)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>129 (107~157)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>131 (109~171)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcium (mg/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6 (8.1~9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4 (7.9~8.9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5 (8~9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnesium (mg/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9 (1.7~2.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 (1.5~2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 (1.6~2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 (1.6~2.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phosphate (mg/dL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 (2.7~4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 (2.8~4.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 (2.7~4.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AST (IU/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (22~56)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 (23~83)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 (23 ~67)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (21~67)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALT (IU/L)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 (16~45)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29 (17~60)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 (17~48)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (17~51)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>226 (187~297)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>268 (207~383)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>225 (188~319)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>261 (199~377)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (5~8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (4~7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Unit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SICU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>288 (26.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>694 (70.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (47.1%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>156 (44.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Co-morbidities</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>97 (12.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>116 (11.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>44 (12.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 (10.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>82 (10.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (12.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (9.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (3.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 (3.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (3.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (2.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 (4.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>61 (6.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 (4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>81 (10.23%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 (7.72%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (11.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (6.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 (7.32%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 (6.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stroke</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (8.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (9.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malignance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>92 (11.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (16.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (14.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Respotary Disease </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>278 (35.1%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 (34.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (35.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (4.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (7.1%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (4.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>147 (18.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>67 (20%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 (20.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP (mmHg)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86 (77~98)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>88 (76~100)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>87 (77~98)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>87 (75~98)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature (F)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98 (97~99)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>87 (75~100)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>88 (74~99)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86 (74~100)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 (77~99)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPO2 (%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 (98~100)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 (99~100)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVP (mmHg)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entire Cohort (1776)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-IAC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>792 (44.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>984 (55.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age (yr.)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>344 (43.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (4.8%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>18 (5.4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>67 (20%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>68 (20.3%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>33 (4.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>70 (7.1%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>147 (18.6%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>348 (50%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (35~72)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>56 (40~73)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>53  (35~72)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>54 (38~73)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>aline_flg</t>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
-  </si>
-  <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>P&gt;z</t>
-  </si>
-  <si>
-    <t>[95% Conf.</t>
-  </si>
-  <si>
-    <t>Interval]</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>weight_first</t>
-  </si>
-  <si>
-    <t>sofa_first</t>
-  </si>
-  <si>
-    <t>hour_icu_intime</t>
-  </si>
-  <si>
-    <t>1.chf_flg</t>
-  </si>
-  <si>
-    <t>1.afib_flg</t>
-  </si>
-  <si>
-    <t>28 day mortality</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Odds Ratio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta Coefficients</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inter group comparison</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethnic group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admission Hour</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admission Day of the Week</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPO2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vital Signs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AST</t>
-  </si>
-  <si>
-    <t>ALT</t>
-  </si>
-  <si>
-    <t>LDH</t>
-  </si>
-  <si>
-    <t>ALP</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>BNP</t>
-  </si>
-  <si>
-    <t>Platelet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potassium</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>206 (96~375)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>200 (108~337)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>180 (104~340)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>187 (106~300)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>42 (37~50)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 (36~48)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.5 (37~47)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNR at Admission</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>65 (8.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>39 (4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 (5.8%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 (3.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>41 (5.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>95 (9.7%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>35 (10.4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entire Cohort (1776)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variables</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>406 (41.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethnic group (White)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>558 (70.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>690 (70.1%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>225 (64.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>234 (67.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>240 (30.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>92 (26.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>97 (27.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admission Day of the Week (Weekends)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>252 (31.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 (26%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>112 (32.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>95 (27.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SOFA Score</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARDS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal Disease</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gender (Female)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>205 (58.9%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>5 (4~6)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (5~8)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.0001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 (4~7)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 (4~7)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Unit</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>504 (63.6%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>290 (29.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>184 (52.9%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (186~289)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (22~27)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 (21~27)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.6~4.5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 (3.7~4.4)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 (11~22)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switched to DNR and CMO (redo)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 (35~46.5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOFA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day-of-ICU-Adm (Sunday as ref.)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hour-of-ICU-Admission</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Renal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chronic Liver Disease</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stroke</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maligant Cancer</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chronic Respiratory Disease</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mean Arterial Pressure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart Rate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPO2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temperature</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>164 (16.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (14.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>278 (35.1%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>121 (34.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (35.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matched Cohort (696)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-IAC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab tests</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>342        351</t>
+  </si>
+  <si>
+    <t>84.44      86.67</t>
+  </si>
+  <si>
+    <t>63         54</t>
+  </si>
+  <si>
+    <t>15.56      13.33</t>
+  </si>
+  <si>
+    <t>405        405</t>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malignance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Respotary Disease </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Hemoglobin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Platelet </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>White Blood Cell</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sodium</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potassium</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bicarbonate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chloride</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creatinine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCO2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.6 (7.8~14.3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.8 (8.5~15.9)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 (11.3~14.4)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age (yr.)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>A-fib</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liver Disease</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 (+/-1.4)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.7 (+/-3.1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.6 (+/-2.2)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2 (+/-5.3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7 (+/-4.8)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.4 (+/-7.5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4 (+/-4.5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.6 (+/-7)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (+/-1)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 (+/-2.6)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 (+/-1.6)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3 (+/-5.3)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 (+/-0.8)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4 (+/-1.4)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1564 (+/-1459)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1758 (+/-1852)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>406 (41.3%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>694 (70.5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>34 (10.1%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>984 (55.4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge from ICU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>792 (44.6%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge from Hospital</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extubation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.61~0.86</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6~0.84</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.63~0.87</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.28 (-1.44~-1.11)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.12 (-0.27~-0.04)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Secondary Outcomes</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>28 day mortality</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.95 (0.62~1.46)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.renal_flg</t>
-  </si>
-  <si>
-    <t>1.liver_flg</t>
-  </si>
-  <si>
-    <t>1.copd_flg</t>
-  </si>
-  <si>
-    <t>1.cad_flg</t>
-  </si>
-  <si>
-    <t>1.stroke_flg</t>
-  </si>
-  <si>
-    <t>1.mal_flg</t>
-  </si>
-  <si>
-    <t>1.resp_flg</t>
-  </si>
-  <si>
-    <t>map_1st</t>
-  </si>
-  <si>
-    <t>hr_1st</t>
-  </si>
-  <si>
-    <t>spo2_1st</t>
-  </si>
-  <si>
-    <t>temp_1st</t>
-  </si>
-  <si>
-    <t>wbc_first</t>
-  </si>
-  <si>
-    <t>hgb_first</t>
-  </si>
-  <si>
-    <t>platelet_first</t>
-  </si>
-  <si>
-    <t>sodium_first</t>
-  </si>
-  <si>
-    <t>potassium_first</t>
-  </si>
-  <si>
-    <t>tco2_first</t>
-  </si>
-  <si>
-    <t>chloride_first</t>
-  </si>
-  <si>
-    <t>bun_first</t>
-  </si>
-  <si>
-    <t>creatinine_first</t>
-  </si>
-  <si>
-    <t>po2_first</t>
-  </si>
-  <si>
-    <t>pco2_first</t>
-  </si>
-  <si>
-    <t>PS model</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>n=1491</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_icu_admission</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICU (ref) vs CSRU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thur</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUROC: 0.81</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>HL: p=0.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.8 (11.2 ~14.2)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.7 (8~14.8)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.5 (8.4~14.7)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>342        351</t>
-  </si>
-  <si>
-    <t>84.44      86.67</t>
-  </si>
-  <si>
-    <t>63         54</t>
-  </si>
-  <si>
-    <t>15.56      13.33</t>
-  </si>
-  <si>
-    <t>405        405</t>
-  </si>
-  <si>
-    <t>140 (138~143)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>140 (137~142)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>238 (184~303)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Malignance</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Respotary Disease </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hemoglobin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Non-IAC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IAC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Effect Size (95% CI)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>p-value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Primary Outcome</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ICU LOS
 (non-surviors)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Hospital LOS
 (non-surviors)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Ventilation time
 (non-surviors)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Secondary Outcome</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Subhazard Ratio</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>95% CI</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Chloride</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BUN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Creatinine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PO2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PCO2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-0.66 (-0.82~-0.5)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-0.33 (-0.88~0.22)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-0.57 (-0.74~-0.41)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-0.37 (-0.82~0.07)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Ventilation time (surviors)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Blood gas test count (per day)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Total IV fluid volumn (1st day)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ICU LOS (surviors)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Hospital LOS (surviors)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-0.54 (-0.7~-0.38)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>-0.78 (-1.36~-0.2)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>COPD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CAD</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Stroke</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_28_flg</t>
+  </si>
+  <si>
+    <t>aline_duration</t>
   </si>
   <si>
     <t>0.96 (0.62~1.47)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>SICU</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>288 (26.4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>164 (47.1%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>156 (44.8%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Co-morbidities</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>97 (12.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>116 (11.8%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>44 (12.6%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>36 (10.3%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>82 (10.4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>125 (12.7%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>32 (9.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>28 (3.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>32 (3.3%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>13 (3.8%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>10 (2.9%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>28 (4.8%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>61 (6.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>14 (4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>18 (5.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>81 (10.23%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>76 (7.72%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>39 (11.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>51 (6.4%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>72 (7.32%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>23 (6.6%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>21 (6%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>70 (8.8%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>152 (15.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>33 (9.5%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>92 (11.6%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>164 (16.7%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>51 (14.7%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>278 (35.1%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>287 (29.2%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>121 (34.7%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>125 (35.9%)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matched Cohort (696)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-IAC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>lab tests</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Blood Cell</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chloride</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creatinine</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCO2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age (yr.)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (+/-1.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7 (+/-3.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 (+/-2.2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 (+/-5.3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7 (+/-4.8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4 (+/-7.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4 (+/-4.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.6 (+/-7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 (+/-2.6)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 (+/-1.6)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 (+/-5.3)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (+/-0.8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 (+/-1.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1564 (+/-1459)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1758 (+/-1852)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>406 (41.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>694 (70.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 (10.1%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>984 (55.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from ICU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>792 (44.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge from Hospital</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extubation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.61~0.86</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6~0.84</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.63~0.87</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.28 (-1.44~-1.11)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.12 (-0.27~-0.04)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary Outcomes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 day mortality</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.95 (0.62~1.46)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.renal_flg</t>
+  </si>
+  <si>
+    <t>1.liver_flg</t>
+  </si>
+  <si>
+    <t>1.copd_flg</t>
+  </si>
+  <si>
+    <t>1.cad_flg</t>
+  </si>
+  <si>
+    <t>1.stroke_flg</t>
+  </si>
+  <si>
+    <t>1.mal_flg</t>
+  </si>
+  <si>
+    <t>1.resp_flg</t>
+  </si>
+  <si>
+    <t>map_1st</t>
+  </si>
+  <si>
+    <t>hr_1st</t>
+  </si>
+  <si>
+    <t>spo2_1st</t>
+  </si>
+  <si>
+    <t>temp_1st</t>
+  </si>
+  <si>
+    <t>wbc_first</t>
+  </si>
+  <si>
+    <t>hgb_first</t>
+  </si>
+  <si>
+    <t>platelet_first</t>
+  </si>
+  <si>
+    <t>sodium_first</t>
+  </si>
+  <si>
+    <t>potassium_first</t>
+  </si>
+  <si>
+    <t>tco2_first</t>
+  </si>
+  <si>
+    <t>chloride_first</t>
+  </si>
+  <si>
+    <t>bun_first</t>
+  </si>
+  <si>
+    <t>creatinine_first</t>
+  </si>
+  <si>
+    <t>po2_first</t>
+  </si>
+  <si>
+    <t>pco2_first</t>
+  </si>
+  <si>
+    <t>PS model</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=1491</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_icu_admission</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU (ref) vs CSRU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thur</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUROC: 0.81</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL: p=0.4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta Coefficients</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platelet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sodium</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potassium</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicarbonate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>206 (96~375)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 (108~337)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>180 (104~340)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>187 (106~300)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>42 (37~50)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 (36~48)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.5 (37~47)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNR at Admission</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>65 (8.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>39 (4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 (5.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 (3.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>41 (5.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>95 (9.7%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>35 (10.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entire Cohort (1776)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variables</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA Score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARDS</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~6)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (5~8)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 (4~7)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Unit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switched to DNR and CMO (redo)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~46.5)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOFA</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day-of-ICU-Adm (Sunday as ref.)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour-of-ICU-Admission</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-fib</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Liver Disease</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stroke</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maligant Cancer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronic Respiratory Disease</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPO2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Platelet </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>1.gender_num</t>
+  </si>
+  <si>
+    <t>1.service_num</t>
+  </si>
+  <si>
+    <t>Back up</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.97 (0.6~1.58)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.6 (11~14.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.7 (11~14.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>246 (190~304)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>237 (177~294)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (100~107)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>104 (101~108)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.1)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.2)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MV during ICU stay</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALINE_FLG</t>
+  </si>
+  <si>
+    <t>DAY_28_FLG</t>
+  </si>
+  <si>
+    <t>0          1</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>100.00     100.00</t>
+  </si>
+  <si>
+    <t>Fisher's exact =</t>
+  </si>
+  <si>
+    <t>344 (43.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (4.8%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (5.4%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>67 (20%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>68 (20.3%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (4.2%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 (7.1%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>147 (18.6%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>aline_flg</t>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+  </si>
+  <si>
+    <t>Std. Err.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P&gt;z</t>
+  </si>
+  <si>
+    <t>[95% Conf.</t>
+  </si>
+  <si>
+    <t>Interval]</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>weight_first</t>
+  </si>
+  <si>
+    <t>sofa_first</t>
+  </si>
+  <si>
+    <t>hour_icu_intime</t>
+  </si>
+  <si>
+    <t>1.chf_flg</t>
+  </si>
+  <si>
+    <t>1.afib_flg</t>
+  </si>
+  <si>
+    <t>28 day mortality</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odds Ratio</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1312,6 +2257,10 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -1351,10 +2300,6 @@
       <b/>
       <sz val="9"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1457,116 +2402,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1575,20 +2536,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1919,1050 +2912,1479 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView view="pageLayout" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection sqref="A1:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15" style="7" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" customWidth="1"/>
     <col min="8" max="16384" width="13.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
-      <c r="A1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" ht="25" thickBot="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13" thickTop="1">
-      <c r="A3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>204</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="67"/>
+      <c r="B2" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="35">
+        <v>243</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="57">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="E4" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="58">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="14">
+        <v>248</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="56">
         <v>0.36</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="E5" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="58">
         <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="58">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="48"/>
+      <c r="B7" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="58">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
+      <c r="A8" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="57">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="63"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="63"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="58"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="56">
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="58">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="58">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+        <v>189</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="58">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>87</v>
+      <c r="A20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="57">
+        <v>1E-4</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="58">
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0.3</v>
+      <c r="A21" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="57">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="58">
+        <v>0.43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="43"/>
+      <c r="A22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="57">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="58">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="44"/>
+        <v>207</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="58">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G24" s="45"/>
+        <v>212</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="58">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+        <v>216</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G26" s="14">
-        <v>0.63</v>
+        <v>217</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="60">
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1</v>
+        <v>222</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="61">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="G28" s="14">
-        <v>1</v>
+        <v>224</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="61">
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D29" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="G29" s="14">
-        <v>0.72</v>
+        <v>229</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="61">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+    </row>
+    <row r="32" spans="1:7" ht="24">
+      <c r="A32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D30" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="G30" s="14">
+      <c r="E32" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="56">
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G31" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="35">
-        <v>1E-4</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="G32" s="14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="24">
       <c r="A33" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D33" s="35">
+        <v>89</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="57">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="G33" s="14">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="E33" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24">
       <c r="A34" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D34" s="35">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="G34" s="14">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24">
       <c r="A35" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0.72</v>
+        <v>99</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="56">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="56">
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="56">
+        <v>0.77</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="56">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24">
+      <c r="A38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="57">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="56">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="56">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="13" customHeight="1">
+      <c r="A41" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="13" customHeight="1">
+      <c r="A42" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="13" customHeight="1">
+      <c r="A43" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="60">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13" customHeight="1">
+      <c r="A44" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="13" customHeight="1">
+      <c r="A45" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="66">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="60">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="13" customHeight="1">
+      <c r="A46" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="66">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13" customHeight="1">
+      <c r="A47" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="60">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13" customHeight="1">
+      <c r="A48" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="60">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13" customHeight="1">
+      <c r="A49" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13" customHeight="1">
+      <c r="A50" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13" customHeight="1">
+      <c r="A51" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="D51" s="60">
+        <v>0.97</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13" customHeight="1">
+      <c r="A52" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="66">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="60">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13" customHeight="1">
+      <c r="A53" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C53" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="14">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G44" s="14">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="D53" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13" customHeight="1">
+      <c r="A54" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13" customHeight="1">
+      <c r="A55" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13" customHeight="1">
+      <c r="A56" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" s="60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="24">
+      <c r="A57" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="35">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="14" t="s">
+      <c r="B57" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="56">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="14">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="B58" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="56">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="24">
+      <c r="A59" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="B60" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="66">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="14">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D47" s="14">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="G47" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="14">
-        <v>0.77</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="14">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="14">
+      <c r="B61" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="60">
         <v>0.05</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" s="14" t="s">
+      <c r="E61" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="66">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="35">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" s="14" t="s">
+      <c r="B62" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="13" customHeight="1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="14" t="s">
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="14">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13" customHeight="1">
-      <c r="A53" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13" customHeight="1">
-      <c r="A54" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13" customHeight="1">
-      <c r="A55" s="48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13" customHeight="1">
-      <c r="A56" s="48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="13" customHeight="1">
-      <c r="A57" s="48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13" customHeight="1">
-      <c r="A58" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13" customHeight="1">
-      <c r="A59" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13" customHeight="1">
-      <c r="A60" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13" customHeight="1">
-      <c r="A61" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="13" customHeight="1">
-      <c r="A62" s="48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="13" customHeight="1">
-      <c r="A63" s="48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="13" customHeight="1">
-      <c r="A64" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="13" customHeight="1">
-      <c r="A65" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="13" customHeight="1">
-      <c r="A66" s="48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="13" customHeight="1">
-      <c r="A67" s="48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="13" customHeight="1">
-      <c r="A68" s="48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G69" s="14">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="35">
-        <v>0.02</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G70" s="14">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="9"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="9"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="9"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="13">
-      <c r="A84" s="48"/>
-    </row>
-    <row r="85" spans="1:1" ht="13">
-      <c r="A85" s="48"/>
-    </row>
-    <row r="86" spans="1:1" ht="13">
-      <c r="A86" s="48"/>
-    </row>
-    <row r="87" spans="1:1" ht="13">
-      <c r="A87" s="48"/>
-    </row>
-    <row r="88" spans="1:1" ht="13">
-      <c r="A88" s="48"/>
-    </row>
-    <row r="89" spans="1:1" ht="13">
-      <c r="A89" s="48"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" thickTop="1">
+      <c r="A2" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -2973,201 +4395,205 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A32" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14" style="7" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="6" style="6" customWidth="1"/>
     <col min="8" max="16384" width="13.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+    <row r="1" spans="1:7" ht="25">
+      <c r="A1" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="25" thickBot="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="11" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" thickTop="1">
       <c r="A3" s="10" t="s">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>201</v>
+        <v>391</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>203</v>
+        <v>393</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>204</v>
+        <v>394</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>62</v>
+        <v>544</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>62</v>
+        <v>544</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>204</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
-        <v>178</v>
+        <v>368</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>545</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>64</v>
+        <v>546</v>
       </c>
       <c r="D4" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>65</v>
+        <v>547</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="24">
+        <v>548</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>470</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>52</v>
+        <v>534</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>197</v>
+        <v>387</v>
       </c>
       <c r="D5" s="14">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>125</v>
+        <v>471</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>126</v>
+        <v>472</v>
       </c>
       <c r="G5" s="14">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>466</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>127</v>
+        <v>473</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>128</v>
+        <v>474</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>130</v>
+        <v>476</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>131</v>
+        <v>477</v>
       </c>
       <c r="G6" s="14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="40" t="s">
-        <v>119</v>
+      <c r="D7" s="50" t="s">
+        <v>465</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="53">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>133</v>
+        <v>479</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>480</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="41"/>
+        <v>481</v>
+      </c>
+      <c r="D8" s="51"/>
       <c r="E8" s="14" t="s">
-        <v>136</v>
+        <v>482</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="44"/>
+        <v>472</v>
+      </c>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="42"/>
+        <v>388</v>
+      </c>
+      <c r="D9" s="52"/>
       <c r="E9" s="14" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" ht="24">
+        <v>328</v>
+      </c>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -3178,45 +4604,45 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>151</v>
+        <v>497</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D11" s="14">
         <v>0.7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="G11" s="14">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="D12" s="14">
         <v>0.1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -3224,22 +4650,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
-        <v>123</v>
+        <v>469</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D13" s="14">
         <v>0.8</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -3247,45 +4673,45 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="D14" s="14">
         <v>0.2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="G14" s="14">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>155</v>
+        <v>501</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="D15" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="G15" s="14">
         <v>0.8</v>
@@ -3293,22 +4719,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>156</v>
+        <v>502</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="D16" s="14">
         <v>0.5</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="G16" s="14">
         <v>0.2</v>
@@ -3316,22 +4742,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>157</v>
+        <v>503</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>543</v>
       </c>
       <c r="D17" s="34">
         <v>1E-4</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="G17" s="14">
         <v>0.9</v>
@@ -3339,99 +4765,99 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D18" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="G18" s="14">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D19" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="G19" s="14">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>122</v>
+        <v>468</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>58</v>
+        <v>540</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>59</v>
+        <v>541</v>
       </c>
       <c r="D20" s="34">
         <v>0.01</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>54</v>
+        <v>536</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>55</v>
+        <v>537</v>
       </c>
       <c r="G20" s="14">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>535</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>60</v>
+        <v>542</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>61</v>
+        <v>543</v>
       </c>
       <c r="D21" s="34">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>56</v>
+        <v>538</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>57</v>
+        <v>539</v>
       </c>
       <c r="G21" s="14">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3440,162 +4866,162 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="9" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="G23" s="14">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="9" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>177</v>
+        <v>367</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>35</v>
+        <v>517</v>
       </c>
       <c r="D24" s="34">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="G24" s="14">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24">
       <c r="A25" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
+        <v>520</v>
       </c>
       <c r="D25" s="14">
         <v>0.01</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="G25" s="14">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24">
       <c r="A26" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="D26" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G26" s="14">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
       <c r="D27" s="14">
         <v>0.77</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
       <c r="G27" s="14">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24">
       <c r="A28" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="D28" s="14">
         <v>0.05</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="G28" s="14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24">
       <c r="A29" s="9" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>39</v>
+        <v>521</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>40</v>
+        <v>522</v>
       </c>
       <c r="D29" s="34">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>39</v>
+        <v>521</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>39</v>
+        <v>521</v>
       </c>
       <c r="G29" s="14">
         <v>0.3</v>
@@ -3603,94 +5029,94 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>41</v>
+        <v>523</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D30" s="34">
         <v>0.02</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>143</v>
+        <v>489</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="G30" s="14">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="D31" s="14">
         <v>0.6</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="G31" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24">
       <c r="A32" s="9" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>103</v>
+        <v>449</v>
       </c>
       <c r="D32" s="14">
         <v>0.5</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>104</v>
+        <v>450</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>105</v>
+        <v>451</v>
       </c>
       <c r="G32" s="14">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>107</v>
+        <v>453</v>
       </c>
       <c r="D33" s="34">
         <v>0.02</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>145</v>
+        <v>491</v>
       </c>
       <c r="G33" s="14">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3704,45 +5130,45 @@
     </row>
     <row r="35" spans="1:7" ht="24">
       <c r="A35" s="9" t="s">
-        <v>109</v>
+        <v>455</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>111</v>
+        <v>457</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="G35" s="14">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24">
       <c r="A36" s="9" t="s">
-        <v>144</v>
+        <v>490</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>114</v>
+        <v>460</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>115</v>
+        <v>461</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>116</v>
+        <v>462</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>199</v>
+        <v>389</v>
       </c>
       <c r="G36" s="14">
         <v>0.9</v>
@@ -3756,7 +5182,7 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="G7:G9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3772,7 +5198,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H21" sqref="H21:J34"/>
     </sheetView>
   </sheetViews>
@@ -3788,82 +5214,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="A1" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="38"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="11" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" customHeight="1" thickTop="1">
       <c r="A3" s="10" t="s">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>201</v>
+        <v>391</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>203</v>
+        <v>393</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>204</v>
+        <v>394</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>62</v>
+        <v>544</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>62</v>
+        <v>544</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>204</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>178</v>
+        <v>368</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>545</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>64</v>
+        <v>546</v>
       </c>
       <c r="D4" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>65</v>
+        <v>547</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>66</v>
+        <v>548</v>
       </c>
       <c r="G4" s="14">
         <v>0.4</v>
@@ -3871,22 +5297,22 @@
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>470</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>52</v>
+        <v>534</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>197</v>
+        <v>387</v>
       </c>
       <c r="D5" s="14">
         <v>0.36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>125</v>
+        <v>471</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>126</v>
+        <v>472</v>
       </c>
       <c r="G5" s="14">
         <v>0.36</v>
@@ -3894,22 +5320,22 @@
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>120</v>
+        <v>466</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>127</v>
+        <v>473</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>128</v>
+        <v>474</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>130</v>
+        <v>476</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>131</v>
+        <v>477</v>
       </c>
       <c r="G6" s="14">
         <v>0.6</v>
@@ -3917,60 +5343,60 @@
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="40" t="s">
-        <v>129</v>
+      <c r="D7" s="50" t="s">
+        <v>475</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="43">
+      <c r="G7" s="53">
         <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>133</v>
+        <v>479</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>480</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="41"/>
+        <v>481</v>
+      </c>
+      <c r="D8" s="51"/>
       <c r="E8" s="14" t="s">
-        <v>136</v>
+        <v>482</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="44"/>
+        <v>483</v>
+      </c>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="42"/>
+        <v>388</v>
+      </c>
+      <c r="D9" s="52"/>
       <c r="E9" s="14" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="45"/>
+        <v>328</v>
+      </c>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -3981,22 +5407,22 @@
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>121</v>
+        <v>467</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="D11" s="14">
         <v>0.7</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="G11" s="14">
         <v>0.4</v>
@@ -4004,22 +5430,22 @@
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>179</v>
+        <v>369</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="D12" s="14">
         <v>0.1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="G12" s="14">
         <v>0.7</v>
@@ -4027,22 +5453,22 @@
     </row>
     <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>123</v>
+        <v>469</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D13" s="14">
         <v>0.8</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="G13" s="14">
         <v>0.7</v>
@@ -4050,22 +5476,22 @@
     </row>
     <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="D14" s="14">
         <v>0.2</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="G14" s="14">
         <v>0.6</v>
@@ -4073,22 +5499,22 @@
     </row>
     <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="D15" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="G15" s="14">
         <v>0.5</v>
@@ -4096,22 +5522,22 @@
     </row>
     <row r="16" spans="1:7" ht="17" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="D16" s="14">
         <v>0.5</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="G16" s="14">
         <v>0.8</v>
@@ -4119,22 +5545,22 @@
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="D17" s="13">
         <v>1E-4</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -4142,22 +5568,22 @@
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="D18" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="G18" s="14">
         <v>0.6</v>
@@ -4165,22 +5591,22 @@
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="D19" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="G19" s="14">
         <v>0.8</v>
@@ -4188,22 +5614,22 @@
     </row>
     <row r="20" spans="1:7" ht="26" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>122</v>
+        <v>468</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>58</v>
+        <v>540</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>59</v>
+        <v>541</v>
       </c>
       <c r="D20" s="33">
         <v>0.01</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>54</v>
+        <v>536</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>55</v>
+        <v>537</v>
       </c>
       <c r="G20" s="14">
         <v>0.8</v>
@@ -4211,22 +5637,22 @@
     </row>
     <row r="21" spans="1:7" ht="26" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>535</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>60</v>
+        <v>542</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>61</v>
+        <v>543</v>
       </c>
       <c r="D21" s="33">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>56</v>
+        <v>538</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>57</v>
+        <v>539</v>
       </c>
       <c r="G21" s="14">
         <v>1</v>
@@ -4234,7 +5660,7 @@
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -4245,22 +5671,22 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="G23" s="14">
         <v>0.3</v>
@@ -4268,22 +5694,22 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>177</v>
+        <v>367</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>35</v>
+        <v>517</v>
       </c>
       <c r="D24" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>36</v>
+        <v>518</v>
       </c>
       <c r="G24" s="14">
         <v>0.5</v>
@@ -4291,22 +5717,22 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>37</v>
+        <v>519</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
+        <v>520</v>
       </c>
       <c r="D25" s="14">
         <v>0.01</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="G25" s="14">
         <v>0.7</v>
@@ -4314,22 +5740,22 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="D26" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="G26" s="14">
         <v>0.6</v>
@@ -4337,22 +5763,22 @@
     </row>
     <row r="27" spans="1:7" ht="17" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>100</v>
+        <v>446</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
       <c r="D27" s="14">
         <v>0.77</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
       <c r="G27" s="14">
         <v>0.8</v>
@@ -4360,22 +5786,22 @@
     </row>
     <row r="28" spans="1:7" ht="17" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>101</v>
+        <v>447</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="D28" s="14">
         <v>0.05</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="G28" s="14">
         <v>0.6</v>
@@ -4383,22 +5809,22 @@
     </row>
     <row r="29" spans="1:7" ht="17" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>39</v>
+        <v>521</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>40</v>
+        <v>522</v>
       </c>
       <c r="D29" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>39</v>
+        <v>521</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>39</v>
+        <v>521</v>
       </c>
       <c r="G29" s="14">
         <v>1</v>
@@ -4406,22 +5832,22 @@
     </row>
     <row r="30" spans="1:7" ht="17" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>41</v>
+        <v>523</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D30" s="13">
         <v>0.02</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>143</v>
+        <v>489</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="G30" s="14">
         <v>0.3</v>
@@ -4429,22 +5855,22 @@
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="D31" s="14">
         <v>0.6</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>43</v>
+        <v>525</v>
       </c>
       <c r="G31" s="14">
         <v>7.0000000000000007E-2</v>
@@ -4452,22 +5878,22 @@
     </row>
     <row r="32" spans="1:7" ht="17" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>103</v>
+        <v>449</v>
       </c>
       <c r="D32" s="14">
         <v>0.5</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>104</v>
+        <v>450</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>105</v>
+        <v>451</v>
       </c>
       <c r="G32" s="14">
         <v>0.7</v>
@@ -4475,22 +5901,22 @@
     </row>
     <row r="33" spans="1:7" ht="17" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>107</v>
+        <v>453</v>
       </c>
       <c r="D33" s="13">
         <v>0.02</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>145</v>
+        <v>491</v>
       </c>
       <c r="G33" s="14">
         <v>0.2</v>
@@ -4507,22 +5933,22 @@
     </row>
     <row r="35" spans="1:7" ht="27" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>109</v>
+        <v>455</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>111</v>
+        <v>457</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="G35" s="14">
         <v>0.2</v>
@@ -4530,22 +5956,22 @@
     </row>
     <row r="36" spans="1:7" ht="38" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>144</v>
+        <v>490</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>114</v>
+        <v>460</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>115</v>
+        <v>461</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>116</v>
+        <v>462</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>199</v>
+        <v>389</v>
       </c>
       <c r="G36" s="14">
         <v>1</v>
@@ -4559,7 +5985,7 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="G7:G9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4573,10 +5999,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4589,24 +6015,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" thickTop="1">
       <c r="A2" s="20" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="B2" s="24">
         <v>0.152</v>
@@ -4615,7 +6041,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="E2" s="21">
         <v>0.83</v>
@@ -4623,7 +6049,7 @@
     </row>
     <row r="3" spans="1:5" ht="26">
       <c r="A3" s="16" t="s">
-        <v>212</v>
+        <v>402</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -4632,142 +6058,108 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26">
       <c r="A5" s="17" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>183</v>
+        <v>375</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>184</v>
+        <v>376</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="19">
-        <v>6.0000000000000001E-3</v>
+        <v>310</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26">
       <c r="A6" s="17" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26">
       <c r="A7" s="17" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="E7" s="19">
-        <v>3.0000000000000001E-3</v>
+        <v>400</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26">
       <c r="A8" s="17" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26">
       <c r="A9" s="17" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>290</v>
+        <v>401</v>
       </c>
       <c r="E9" s="19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26">
-      <c r="A10" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26">
-      <c r="A11" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4783,7 +6175,9 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -4795,24 +6189,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" customHeight="1" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" customHeight="1" thickTop="1">
       <c r="A2" s="20" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="B2" s="24">
         <v>0.152</v>
@@ -4821,7 +6215,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="E2" s="21">
         <v>0.9</v>
@@ -4829,7 +6223,7 @@
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>212</v>
+        <v>402</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -4838,33 +6232,33 @@
     </row>
     <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>183</v>
+        <v>373</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>184</v>
+        <v>374</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="E5" s="19">
         <v>6.0000000000000001E-3</v>
@@ -4872,33 +6266,33 @@
     </row>
     <row r="6" spans="1:5" ht="29" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>185</v>
+        <v>375</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>186</v>
+        <v>376</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="E7" s="19">
         <v>3.0000000000000001E-3</v>
@@ -4906,33 +6300,33 @@
     </row>
     <row r="8" spans="1:5" ht="29" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>189</v>
+        <v>379</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>191</v>
+        <v>381</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>192</v>
+        <v>382</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="E9" s="19">
         <v>2.9999999999999997E-4</v>
@@ -4940,40 +6334,40 @@
     </row>
     <row r="10" spans="1:5" ht="29" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>193</v>
+        <v>383</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>196</v>
+        <v>386</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="E11" s="19">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5000,23 +6394,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>529</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5024,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C7">
         <v>693</v>
@@ -5032,7 +6426,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C8">
         <v>85.56</v>
@@ -5046,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C10">
         <v>117</v>
@@ -5054,7 +6448,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="C11">
         <v>14.44</v>
@@ -5062,10 +6456,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C13">
         <v>810</v>
@@ -5073,7 +6467,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>532</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -5084,14 +6478,14 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>533</v>
       </c>
       <c r="C16" s="4">
         <v>0.42399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5120,46 +6514,46 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>549</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>550</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>551</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>552</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>71</v>
+        <v>553</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>72</v>
+        <v>554</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>68</v>
+        <v>550</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>72</v>
+        <v>554</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>71</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5178,7 +6572,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>556</v>
       </c>
       <c r="B5" s="3">
         <v>0.99664870000000005</v>
@@ -5199,7 +6593,7 @@
         <v>1.004915</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>146</v>
+        <v>492</v>
       </c>
       <c r="J5" s="3">
         <v>0.99664870000000005</v>
@@ -5216,7 +6610,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>557</v>
       </c>
       <c r="B6" s="3">
         <v>1.000894</v>
@@ -5237,7 +6631,7 @@
         <v>1.0066790000000001</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>147</v>
+        <v>493</v>
       </c>
       <c r="J6" s="3">
         <v>1.000894</v>
@@ -5254,7 +6648,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>558</v>
       </c>
       <c r="B7" s="3">
         <v>1.59127</v>
@@ -5275,7 +6669,7 @@
         <v>1.7233210000000001</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>148</v>
+        <v>494</v>
       </c>
       <c r="J7" s="3">
         <v>1.59127</v>
@@ -5292,7 +6686,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="B8" s="3">
         <v>7.2156000000000002</v>
@@ -5313,7 +6707,7 @@
         <v>9.8052519999999994</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="J8" s="3">
         <v>7.2156000000000002</v>
@@ -5344,7 +6738,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>239</v>
+        <v>429</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5353,7 +6747,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>149</v>
+        <v>495</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -5362,7 +6756,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>431</v>
       </c>
       <c r="B11" s="3">
         <v>1.5041310000000001</v>
@@ -5383,7 +6777,7 @@
         <v>2.4499439999999999</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>241</v>
+        <v>431</v>
       </c>
       <c r="J11" s="3">
         <v>1.5041310000000001</v>
@@ -5400,7 +6794,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>242</v>
+        <v>432</v>
       </c>
       <c r="B12" s="3">
         <v>1.183298</v>
@@ -5421,7 +6815,7 @@
         <v>1.8988700000000001</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>242</v>
+        <v>432</v>
       </c>
       <c r="J12" s="3">
         <v>1.183298</v>
@@ -5438,7 +6832,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>243</v>
+        <v>433</v>
       </c>
       <c r="B13" s="3">
         <v>1.5754729999999999</v>
@@ -5459,7 +6853,7 @@
         <v>2.5581839999999998</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>243</v>
+        <v>433</v>
       </c>
       <c r="J13" s="3">
         <v>1.5754729999999999</v>
@@ -5476,7 +6870,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>244</v>
+        <v>434</v>
       </c>
       <c r="B14" s="3">
         <v>1.4919450000000001</v>
@@ -5497,7 +6891,7 @@
         <v>2.4153950000000002</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>244</v>
+        <v>434</v>
       </c>
       <c r="J14" s="3">
         <v>1.4919450000000001</v>
@@ -5514,7 +6908,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="B15" s="3">
         <v>1.9040029999999999</v>
@@ -5535,7 +6929,7 @@
         <v>3.1484679999999998</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="J15" s="3">
         <v>1.9040029999999999</v>
@@ -5552,7 +6946,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="B16" s="3">
         <v>1.127912</v>
@@ -5573,7 +6967,7 @@
         <v>1.792835</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="J16" s="3">
         <v>1.127912</v>
@@ -5604,7 +6998,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>559</v>
       </c>
       <c r="B18" s="3">
         <v>1.0259119999999999</v>
@@ -5625,7 +7019,7 @@
         <v>1.042926</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>150</v>
+        <v>496</v>
       </c>
       <c r="J18" s="3">
         <v>1.0259119999999999</v>
@@ -5642,7 +7036,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="B19" s="3">
         <v>1.7799700000000001</v>
@@ -5663,7 +7057,7 @@
         <v>2.9036029999999999</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>151</v>
+        <v>497</v>
       </c>
       <c r="J19" s="3">
         <v>1.7799700000000001</v>
@@ -5680,7 +7074,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="B20" s="3">
         <v>0.97763770000000005</v>
@@ -5701,7 +7095,7 @@
         <v>1.5348759999999999</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="J20" s="3">
         <v>0.97763770000000005</v>
@@ -5718,7 +7112,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
       <c r="B21" s="3">
         <v>1.537355</v>
@@ -5739,7 +7133,7 @@
         <v>3.3604889999999998</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="J21" s="3">
         <v>1.537355</v>
@@ -5756,7 +7150,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>216</v>
+        <v>406</v>
       </c>
       <c r="B22" s="3">
         <v>0.36014439999999998</v>
@@ -5777,7 +7171,7 @@
         <v>0.67574730000000005</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>0.36014439999999998</v>
@@ -5794,7 +7188,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="B23" s="3">
         <v>0.78372209999999998</v>
@@ -5815,7 +7209,7 @@
         <v>1.2588999999999999</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>155</v>
+        <v>501</v>
       </c>
       <c r="J23" s="3">
         <v>0.78372209999999998</v>
@@ -5832,7 +7226,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="B24" s="3">
         <v>0.95840420000000004</v>
@@ -5853,7 +7247,7 @@
         <v>1.687519</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>156</v>
+        <v>502</v>
       </c>
       <c r="J24" s="3">
         <v>0.95840420000000004</v>
@@ -5870,7 +7264,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>219</v>
+        <v>409</v>
       </c>
       <c r="B25" s="3">
         <v>1.382242</v>
@@ -5891,7 +7285,7 @@
         <v>2.1892309999999999</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>157</v>
+        <v>503</v>
       </c>
       <c r="J25" s="3">
         <v>1.382242</v>
@@ -5908,7 +7302,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="B26" s="3">
         <v>1.1597500000000001</v>
@@ -5929,7 +7323,7 @@
         <v>1.712845</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>158</v>
+        <v>504</v>
       </c>
       <c r="J26" s="3">
         <v>1.1597500000000001</v>
@@ -5946,7 +7340,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>221</v>
+        <v>411</v>
       </c>
       <c r="B27" s="3">
         <v>1.016337</v>
@@ -5967,7 +7361,7 @@
         <v>1.384552</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>159</v>
+        <v>505</v>
       </c>
       <c r="J27" s="3">
         <v>1.016337</v>
@@ -5984,7 +7378,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>222</v>
+        <v>412</v>
       </c>
       <c r="B28" s="3">
         <v>1.007226</v>
@@ -6005,7 +7399,7 @@
         <v>1.0146219999999999</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>160</v>
+        <v>506</v>
       </c>
       <c r="J28" s="3">
         <v>1.007226</v>
@@ -6022,7 +7416,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>223</v>
+        <v>413</v>
       </c>
       <c r="B29" s="3">
         <v>1.0063120000000001</v>
@@ -6043,7 +7437,7 @@
         <v>1.0138450000000001</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>161</v>
+        <v>507</v>
       </c>
       <c r="J29" s="3">
         <v>1.0063120000000001</v>
@@ -6060,7 +7454,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>224</v>
+        <v>414</v>
       </c>
       <c r="B30" s="3">
         <v>0.97394990000000004</v>
@@ -6081,7 +7475,7 @@
         <v>1.001387</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>162</v>
+        <v>508</v>
       </c>
       <c r="J30" s="3">
         <v>0.97394990000000004</v>
@@ -6098,7 +7492,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>225</v>
+        <v>415</v>
       </c>
       <c r="B31" s="3">
         <v>1.0002230000000001</v>
@@ -6119,7 +7513,7 @@
         <v>1.0289280000000001</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>163</v>
+        <v>509</v>
       </c>
       <c r="J31" s="3">
         <v>1.0002230000000001</v>
@@ -6136,7 +7530,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>226</v>
+        <v>416</v>
       </c>
       <c r="B32" s="3">
         <v>1.032224</v>
@@ -6157,7 +7551,7 @@
         <v>1.0558650000000001</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="J32" s="3">
         <v>1.032224</v>
@@ -6174,7 +7568,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>227</v>
+        <v>417</v>
       </c>
       <c r="B33" s="3">
         <v>0.95359110000000002</v>
@@ -6195,7 +7589,7 @@
         <v>1.0239929999999999</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>164</v>
+        <v>510</v>
       </c>
       <c r="J33" s="3">
         <v>0.95359110000000002</v>
@@ -6212,7 +7606,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="B34" s="3">
         <v>0.99973749999999995</v>
@@ -6233,7 +7627,7 @@
         <v>1.001209</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>165</v>
+        <v>511</v>
       </c>
       <c r="J34" s="3">
         <v>0.99973749999999995</v>
@@ -6250,7 +7644,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>229</v>
+        <v>419</v>
       </c>
       <c r="B35" s="3">
         <v>0.92980370000000001</v>
@@ -6271,7 +7665,7 @@
         <v>0.9690512</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="J35" s="3">
         <v>0.92980370000000001</v>
@@ -6288,7 +7682,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="B36" s="3">
         <v>1.0222789999999999</v>
@@ -6309,7 +7703,7 @@
         <v>1.211368</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="J36" s="3">
         <v>1.0222789999999999</v>
@@ -6326,7 +7720,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
       <c r="B37" s="3">
         <v>1.023301</v>
@@ -6347,7 +7741,7 @@
         <v>1.058127</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>169</v>
+        <v>359</v>
       </c>
       <c r="J37" s="3">
         <v>1.023301</v>
@@ -6364,7 +7758,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>232</v>
+        <v>422</v>
       </c>
       <c r="B38" s="3">
         <v>1.055034</v>
@@ -6385,7 +7779,7 @@
         <v>1.0932200000000001</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="J38" s="3">
         <v>1.055034</v>
@@ -6402,7 +7796,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>233</v>
+        <v>423</v>
       </c>
       <c r="B39" s="3">
         <v>1.005822</v>
@@ -6423,7 +7817,7 @@
         <v>1.018823</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="J39" s="3">
         <v>1.005822</v>
@@ -6440,7 +7834,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>234</v>
+        <v>424</v>
       </c>
       <c r="B40" s="3">
         <v>0.76309660000000001</v>
@@ -6461,7 +7855,7 @@
         <v>0.91475450000000003</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>172</v>
+        <v>362</v>
       </c>
       <c r="J40" s="3">
         <v>0.76309660000000001</v>
@@ -6478,7 +7872,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
-        <v>235</v>
+        <v>425</v>
       </c>
       <c r="B41" s="3">
         <v>1.0007079999999999</v>
@@ -6499,7 +7893,7 @@
         <v>1.001633</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>173</v>
+        <v>363</v>
       </c>
       <c r="J41" s="3">
         <v>1.0007079999999999</v>
@@ -6516,7 +7910,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>236</v>
+        <v>426</v>
       </c>
       <c r="B42" s="3">
         <v>0.99573080000000003</v>
@@ -6537,7 +7931,7 @@
         <v>1.0071490000000001</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="J42" s="3">
         <v>0.99573080000000003</v>
@@ -6554,16 +7948,16 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -6589,58 +7983,58 @@
   <sheetData>
     <row r="3" spans="1:4" ht="27" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" thickTop="1">
       <c r="A4" s="20" t="s">
-        <v>202</v>
+        <v>392</v>
       </c>
       <c r="B4" s="29">
         <v>0.72</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>207</v>
+        <v>397</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39">
       <c r="A5" s="15" t="s">
-        <v>205</v>
+        <v>395</v>
       </c>
       <c r="B5" s="31">
         <v>0.71</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>208</v>
+        <v>398</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>206</v>
+        <v>396</v>
       </c>
       <c r="B6" s="31">
         <v>0.74</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>209</v>
+        <v>399</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6650,7 +8044,7 @@
       <c r="D7" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6664,10 +8058,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6678,24 +8072,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14" thickBot="1">
       <c r="A1" s="22" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>554</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" thickTop="1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="B2">
         <v>1.383513</v>
@@ -6706,151 +8100,424 @@
       <c r="D2">
         <v>2.4226420000000002</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="35">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26">
-      <c r="A3" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
+    <row r="3" spans="1:5">
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="40"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="40"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="41"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" t="s">
+        <v>555</v>
+      </c>
+      <c r="E12" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="38"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="44">
+        <v>3.4056419999999998</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1.359945</v>
+      </c>
+      <c r="D14" s="44">
+        <v>8.5285740000000008</v>
+      </c>
+      <c r="E14" s="46">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B15" s="43">
+        <v>1.0531250000000001</v>
+      </c>
+      <c r="C15" s="43">
+        <v>1.0380670000000001</v>
+      </c>
+      <c r="D15" s="43">
+        <v>1.068403</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" s="43">
+        <v>1.276362</v>
+      </c>
+      <c r="C16" s="43">
+        <v>0.83736049999999995</v>
+      </c>
+      <c r="D16" s="43">
+        <v>1.9455180000000001</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" s="43">
+        <v>0.62919610000000004</v>
+      </c>
+      <c r="C17" s="43">
+        <v>0.38291979999999998</v>
+      </c>
+      <c r="D17" s="43">
+        <v>1.033866</v>
+      </c>
+      <c r="E17" s="46">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" s="43">
+        <v>1.1633180000000001</v>
+      </c>
+      <c r="C18" s="43">
+        <v>1.0523720000000001</v>
+      </c>
+      <c r="D18" s="43">
+        <v>1.28596</v>
+      </c>
+      <c r="E18" s="46">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="B19" s="43">
+        <v>1.1828609999999999</v>
+      </c>
+      <c r="C19" s="43">
+        <v>0.67692909999999995</v>
+      </c>
+      <c r="D19" s="43">
+        <v>2.0669240000000002</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="B20" s="43">
+        <v>1.5444310000000001</v>
+      </c>
+      <c r="C20" s="43">
+        <v>0.930809</v>
+      </c>
+      <c r="D20" s="43">
+        <v>2.5625749999999998</v>
+      </c>
+      <c r="E20" s="45">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="43">
+        <v>0.44896079999999999</v>
+      </c>
+      <c r="C21" s="43">
+        <v>0.16305739999999999</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1.236165</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="43">
+        <v>1.114331</v>
+      </c>
+      <c r="C22" s="43">
+        <v>0.47405170000000002</v>
+      </c>
+      <c r="D22" s="43">
+        <v>2.6194039999999998</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" s="43">
+        <v>0.74053939999999996</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0.38501570000000002</v>
+      </c>
+      <c r="D23" s="43">
+        <v>1.4243539999999999</v>
+      </c>
+      <c r="E23" s="45">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="43">
+        <v>1.4857530000000001</v>
+      </c>
+      <c r="C24" s="43">
+        <v>0.78521039999999998</v>
+      </c>
+      <c r="D24" s="43">
+        <v>2.8113000000000001</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="43">
+        <v>9.8049400000000002</v>
+      </c>
+      <c r="C25" s="43">
+        <v>5.9976349999999998</v>
+      </c>
+      <c r="D25" s="43">
+        <v>16.029119999999999</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="43">
+        <v>1.242146</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0.74847390000000003</v>
+      </c>
+      <c r="D26" s="43">
+        <v>2.0614300000000001</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="43">
+        <v>2.1560739999999998</v>
+      </c>
+      <c r="C27" s="43">
+        <v>1.354471</v>
+      </c>
+      <c r="D27" s="43">
+        <v>3.432083</v>
+      </c>
+      <c r="E27" s="45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14" thickBot="1">
+      <c r="A57" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" t="s">
+        <v>554</v>
+      </c>
+      <c r="D57" t="s">
+        <v>555</v>
+      </c>
+      <c r="E57" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14" thickTop="1">
+      <c r="A58" t="s">
+        <v>562</v>
+      </c>
+      <c r="B58">
+        <v>1.383513</v>
+      </c>
+      <c r="C58">
+        <v>0.79009160000000001</v>
+      </c>
+      <c r="D58">
+        <v>2.4226420000000002</v>
+      </c>
+      <c r="E58" s="35">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="26">
+      <c r="A59" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60">
         <v>1.439619</v>
       </c>
-      <c r="C4">
+      <c r="C60">
         <v>0.90765700000000005</v>
       </c>
-      <c r="D4">
+      <c r="D60">
         <v>1.9715819999999999</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26">
-      <c r="A5" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5">
+      <c r="E60" s="36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="26">
+      <c r="A61" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61">
         <v>1.527272</v>
       </c>
-      <c r="C5">
+      <c r="C61">
         <v>-1.4457869999999999</v>
       </c>
-      <c r="D5">
+      <c r="D61">
         <v>4.5003310000000001</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E61" s="36">
         <v>0.307</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26">
-      <c r="A6" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6">
+    <row r="62" spans="1:5" ht="26">
+      <c r="A62" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62">
         <v>3.8500200000000002</v>
       </c>
-      <c r="C6">
+      <c r="C62">
         <v>2.4434930000000001</v>
       </c>
-      <c r="D6">
+      <c r="D62">
         <v>5.2565460000000002</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26">
-      <c r="A7" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7">
+      <c r="E62" s="36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="26">
+      <c r="A63" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63">
         <v>1.402738</v>
       </c>
-      <c r="C7">
+      <c r="C63">
         <v>-1.8356399999999999</v>
       </c>
-      <c r="D7">
+      <c r="D63">
         <v>4.6411160000000002</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E63" s="36">
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14" thickBot="1">
-      <c r="A13" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14" thickTop="1">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14">
-        <v>10.83609</v>
-      </c>
-      <c r="C14">
-        <v>2.1167029999999998</v>
-      </c>
-      <c r="D14">
-        <v>55.47343</v>
-      </c>
-      <c r="E14">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="E16" s="46"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="E17" s="46"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="17"/>
-      <c r="E18" s="46"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="17"/>
-      <c r="E19" s="46"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
